--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94330226063238</v>
+        <v>25.94330226063242</v>
       </c>
       <c r="C2">
-        <v>24.22505031814528</v>
+        <v>24.2250503181453</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.61815749239142</v>
+        <v>18.61815749239139</v>
       </c>
       <c r="F2">
-        <v>41.22525959097641</v>
+        <v>41.22525959097644</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23.01907451094293</v>
+        <v>23.01907451094291</v>
       </c>
       <c r="I2">
-        <v>12.77966431828807</v>
+        <v>12.77966431828809</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.07335157277418</v>
+        <v>24.0733515727742</v>
       </c>
       <c r="C3">
-        <v>22.42869093705736</v>
+        <v>22.42869093705731</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.36345947891371</v>
+        <v>17.3634594789137</v>
       </c>
       <c r="F3">
-        <v>38.1607964558009</v>
+        <v>38.16079645580091</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21.98777976866976</v>
+        <v>21.98777976866977</v>
       </c>
       <c r="I3">
-        <v>12.15593255074682</v>
+        <v>12.15593255074684</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87165029641926</v>
+        <v>22.87165029641923</v>
       </c>
       <c r="C4">
-        <v>21.2783687393553</v>
+        <v>21.2783687393554</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.5586482542947</v>
+        <v>16.55864825429462</v>
       </c>
       <c r="F4">
-        <v>36.2086269240479</v>
+        <v>36.20862692404789</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>21.37532736897729</v>
+        <v>21.37532736897726</v>
       </c>
       <c r="I4">
-        <v>11.78432625132837</v>
+        <v>11.78432625132832</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36809546768709</v>
+        <v>22.36809546768701</v>
       </c>
       <c r="C5">
-        <v>20.79726144949444</v>
+        <v>20.79726144949443</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>16.22181721242655</v>
       </c>
       <c r="F5">
-        <v>35.39488717473849</v>
+        <v>35.39488717473852</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21.13084471291419</v>
+        <v>21.13084471291426</v>
       </c>
       <c r="I5">
-        <v>11.63565348252486</v>
+        <v>11.63565348252491</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.28363330998375</v>
+        <v>22.28363330998362</v>
       </c>
       <c r="C6">
-        <v>20.71661664460651</v>
+        <v>20.71661664460639</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.16534592470708</v>
+        <v>16.16534592470709</v>
       </c>
       <c r="F6">
-        <v>35.25865499265988</v>
+        <v>35.25865499265981</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21.09055355057606</v>
+        <v>21.09055355057609</v>
       </c>
       <c r="I6">
-        <v>11.61113101455901</v>
+        <v>11.61113101455902</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.86491575176424</v>
+        <v>22.86491575176422</v>
       </c>
       <c r="C7">
-        <v>21.27193087299744</v>
+        <v>21.27193087299722</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.55414177181221</v>
+        <v>16.55414177181229</v>
       </c>
       <c r="F7">
-        <v>36.19772682108033</v>
+        <v>36.19772682108022</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21.37200968694181</v>
+        <v>21.37200968694179</v>
       </c>
       <c r="I7">
-        <v>11.7823101259226</v>
+        <v>11.78231012592261</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30941063479577</v>
+        <v>25.30941063479573</v>
       </c>
       <c r="C8">
-        <v>23.61521669025777</v>
+        <v>23.61521669025781</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.19254453399969</v>
+        <v>18.19254453399976</v>
       </c>
       <c r="F8">
-        <v>40.18295847777204</v>
+        <v>40.18295847777206</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22.65908199672455</v>
+        <v>22.65908199672468</v>
       </c>
       <c r="I8">
-        <v>12.56216913360988</v>
+        <v>12.56216913360991</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.6980398441608</v>
+        <v>29.69803984416073</v>
       </c>
       <c r="C9">
-        <v>27.8570981685756</v>
+        <v>27.85709816857564</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.14389191404286</v>
+        <v>21.14389191404295</v>
       </c>
       <c r="F9">
-        <v>47.46636695329403</v>
+        <v>47.46636695329398</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25.35706826404648</v>
+        <v>25.35706826404643</v>
       </c>
       <c r="I9">
-        <v>14.18897975693637</v>
+        <v>14.18897975693636</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>32.70768623653343</v>
       </c>
       <c r="C10">
-        <v>30.79494003470577</v>
+        <v>30.79494003470596</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.17270748330168</v>
+        <v>23.17270748330163</v>
       </c>
       <c r="F10">
-        <v>52.54480182911554</v>
+        <v>52.54480182911551</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.46606787815465</v>
+        <v>27.46606787815466</v>
       </c>
       <c r="I10">
-        <v>15.4823418475827</v>
+        <v>15.48234184758279</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.03913878494115</v>
+        <v>34.03913878494108</v>
       </c>
       <c r="C11">
-        <v>32.10288469734947</v>
+        <v>32.1028846973495</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.07113354760904</v>
+        <v>24.07113354760913</v>
       </c>
       <c r="F11">
-        <v>54.81129439323173</v>
+        <v>54.81129439323175</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.58179249825271</v>
+        <v>28.58179249825263</v>
       </c>
       <c r="I11">
-        <v>16.23335598782692</v>
+        <v>16.23335598782688</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.53883448470786</v>
+        <v>34.53883448470798</v>
       </c>
       <c r="C12">
-        <v>32.5951425741822</v>
+        <v>32.59514257418198</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.40843379883329</v>
+        <v>24.40843379883328</v>
       </c>
       <c r="F12">
-        <v>55.66492237871584</v>
+        <v>55.66492237871599</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.04397394044491</v>
+        <v>29.04397394044517</v>
       </c>
       <c r="I12">
-        <v>16.51874914492889</v>
+        <v>16.51874914492906</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.43139937197999</v>
+        <v>34.43139937197991</v>
       </c>
       <c r="C13">
-        <v>32.48924146561829</v>
+        <v>32.48924146561827</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.33590862063457</v>
+        <v>24.33590862063465</v>
       </c>
       <c r="F13">
-        <v>55.48125465230252</v>
+        <v>55.48125465230235</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28.94430769749675</v>
+        <v>28.94430769749653</v>
       </c>
       <c r="I13">
-        <v>16.45722432982809</v>
+        <v>16.457224329828</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.08033322776319</v>
+        <v>34.08033322776317</v>
       </c>
       <c r="C14">
-        <v>32.14343690694994</v>
+        <v>32.14343690695005</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>24.09893788268159</v>
       </c>
       <c r="F14">
-        <v>54.88160520584792</v>
+        <v>54.88160520584786</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.61976105141587</v>
+        <v>28.61976105141581</v>
       </c>
       <c r="I14">
-        <v>16.25680978900379</v>
+        <v>16.25680978900381</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.8647399716234</v>
+        <v>33.86473997162337</v>
       </c>
       <c r="C15">
-        <v>31.93126219242154</v>
+        <v>31.93126219242168</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.95342727516973</v>
+        <v>23.9534272751697</v>
       </c>
       <c r="F15">
-        <v>54.51375293368349</v>
+        <v>54.51375293368353</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.42131692090899</v>
+        <v>28.4213169209091</v>
       </c>
       <c r="I15">
-        <v>16.13420914913596</v>
+        <v>16.134209149136</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.6199893443539</v>
+        <v>32.61998934435388</v>
       </c>
       <c r="C16">
-        <v>30.70897549092312</v>
+        <v>30.70897549092317</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.11354938991451</v>
+        <v>23.11354938991459</v>
       </c>
       <c r="F16">
-        <v>52.39593384900817</v>
+        <v>52.39593384900818</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.40185202730783</v>
+        <v>27.40185202730782</v>
       </c>
       <c r="I16">
-        <v>15.43335042913022</v>
+        <v>15.43335042913021</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.84732908729137</v>
+        <v>31.8473290872913</v>
       </c>
       <c r="C17">
-        <v>29.95253546505596</v>
+        <v>29.95253546505577</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.59243131019893</v>
+        <v>22.59243131019907</v>
       </c>
       <c r="F17">
-        <v>51.08658347178508</v>
+        <v>51.08658347178494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26.84309334147594</v>
+        <v>26.84309334147578</v>
       </c>
       <c r="I17">
-        <v>15.08411185934214</v>
+        <v>15.08411185934207</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.39930712011797</v>
+        <v>31.39930712011799</v>
       </c>
       <c r="C18">
-        <v>29.51469415288832</v>
+        <v>29.51469415288837</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>22.29034950988967</v>
       </c>
       <c r="F18">
-        <v>50.32924812053155</v>
+        <v>50.32924812053153</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26.52494717411074</v>
+        <v>26.52494717411077</v>
       </c>
       <c r="I18">
-        <v>14.89241122484893</v>
+        <v>14.89241122484895</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.24696980883441</v>
+        <v>31.24696980883438</v>
       </c>
       <c r="C19">
-        <v>29.36594609864537</v>
+        <v>29.36594609864544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.1876499942677</v>
+        <v>22.18764999426768</v>
       </c>
       <c r="F19">
-        <v>50.07205625669702</v>
+        <v>50.072056256697</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.92994746204158</v>
+        <v>31.9299474620414</v>
       </c>
       <c r="C20">
-        <v>30.03333811578009</v>
+        <v>30.03333811577972</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.64814428572337</v>
+        <v>22.64814428572352</v>
       </c>
       <c r="F20">
-        <v>51.22639325507614</v>
+        <v>51.22639325507588</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26.90223342904261</v>
+        <v>26.90223342904245</v>
       </c>
       <c r="I20">
-        <v>15.11975286461277</v>
+        <v>15.11975286461268</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18356363161003</v>
+        <v>34.18356363161007</v>
       </c>
       <c r="C21">
-        <v>32.24508076153693</v>
+        <v>32.24508076153691</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.16861550564079</v>
+        <v>24.16861550564082</v>
       </c>
       <c r="F21">
-        <v>55.05784786237651</v>
+        <v>55.05784786237654</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28.71501298880476</v>
+        <v>28.71501298880478</v>
       </c>
       <c r="I21">
-        <v>16.31564143087391</v>
+        <v>16.31564143087394</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.63079864963131</v>
+        <v>35.6307986496313</v>
       </c>
       <c r="C22">
-        <v>33.67358029558362</v>
+        <v>33.67358029558372</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.14573273869338</v>
+        <v>25.14573273869333</v>
       </c>
       <c r="F22">
-        <v>57.53591053702694</v>
+        <v>57.53591053702698</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.06612288313234</v>
+        <v>30.06612288313243</v>
       </c>
       <c r="I22">
-        <v>17.14927670504348</v>
+        <v>17.14927670504355</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.86037143226574</v>
+        <v>34.86037143226566</v>
       </c>
       <c r="C23">
-        <v>32.91230385687523</v>
+        <v>32.91230385687526</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.62550748784039</v>
+        <v>24.62550748784052</v>
       </c>
       <c r="F23">
-        <v>56.21505684916711</v>
+        <v>56.21505684916698</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.34322682172639</v>
+        <v>29.34322682172607</v>
       </c>
       <c r="I23">
-        <v>16.70342701469361</v>
+        <v>16.70342701469344</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.89260762660725</v>
+        <v>31.89260762660705</v>
       </c>
       <c r="C24">
         <v>29.99681651533338</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.62296423088486</v>
+        <v>22.62296423088485</v>
       </c>
       <c r="F24">
-        <v>51.16319961297526</v>
+        <v>51.16319961297511</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26.87548663030948</v>
+        <v>26.87548663030935</v>
       </c>
       <c r="I24">
-        <v>15.10363355640292</v>
+        <v>15.10363355640285</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.5511271314577</v>
+        <v>28.55112713145748</v>
       </c>
       <c r="C25">
-        <v>26.74394065839005</v>
+        <v>26.74394065838986</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.37164836804842</v>
+        <v>20.37164836804866</v>
       </c>
       <c r="F25">
-        <v>45.54830303406906</v>
+        <v>45.54830303406885</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24.60688235992706</v>
+        <v>24.60688235992692</v>
       </c>
       <c r="I25">
-        <v>13.73713403408637</v>
+        <v>13.73713403408631</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94330226063242</v>
+        <v>25.94330226063238</v>
       </c>
       <c r="C2">
-        <v>24.2250503181453</v>
+        <v>24.22505031814528</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.61815749239139</v>
+        <v>18.61815749239142</v>
       </c>
       <c r="F2">
-        <v>41.22525959097644</v>
+        <v>41.22525959097641</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23.01907451094291</v>
+        <v>23.01907451094293</v>
       </c>
       <c r="I2">
-        <v>12.77966431828809</v>
+        <v>12.77966431828807</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.0733515727742</v>
+        <v>24.07335157277418</v>
       </c>
       <c r="C3">
-        <v>22.42869093705731</v>
+        <v>22.42869093705736</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.3634594789137</v>
+        <v>17.36345947891371</v>
       </c>
       <c r="F3">
-        <v>38.16079645580091</v>
+        <v>38.1607964558009</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>21.98777976866977</v>
+        <v>21.98777976866976</v>
       </c>
       <c r="I3">
-        <v>12.15593255074684</v>
+        <v>12.15593255074682</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87165029641923</v>
+        <v>22.87165029641926</v>
       </c>
       <c r="C4">
-        <v>21.2783687393554</v>
+        <v>21.2783687393553</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.55864825429462</v>
+        <v>16.5586482542947</v>
       </c>
       <c r="F4">
-        <v>36.20862692404789</v>
+        <v>36.2086269240479</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>21.37532736897726</v>
+        <v>21.37532736897729</v>
       </c>
       <c r="I4">
-        <v>11.78432625132832</v>
+        <v>11.78432625132837</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36809546768701</v>
+        <v>22.36809546768709</v>
       </c>
       <c r="C5">
-        <v>20.79726144949443</v>
+        <v>20.79726144949444</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>16.22181721242655</v>
       </c>
       <c r="F5">
-        <v>35.39488717473852</v>
+        <v>35.39488717473849</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21.13084471291426</v>
+        <v>21.13084471291419</v>
       </c>
       <c r="I5">
-        <v>11.63565348252491</v>
+        <v>11.63565348252486</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.28363330998362</v>
+        <v>22.28363330998375</v>
       </c>
       <c r="C6">
-        <v>20.71661664460639</v>
+        <v>20.71661664460651</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.16534592470709</v>
+        <v>16.16534592470708</v>
       </c>
       <c r="F6">
-        <v>35.25865499265981</v>
+        <v>35.25865499265988</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21.09055355057609</v>
+        <v>21.09055355057606</v>
       </c>
       <c r="I6">
-        <v>11.61113101455902</v>
+        <v>11.61113101455901</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.86491575176422</v>
+        <v>22.86491575176424</v>
       </c>
       <c r="C7">
-        <v>21.27193087299722</v>
+        <v>21.27193087299744</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.55414177181229</v>
+        <v>16.55414177181221</v>
       </c>
       <c r="F7">
-        <v>36.19772682108022</v>
+        <v>36.19772682108033</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21.37200968694179</v>
+        <v>21.37200968694181</v>
       </c>
       <c r="I7">
-        <v>11.78231012592261</v>
+        <v>11.7823101259226</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30941063479573</v>
+        <v>25.30941063479577</v>
       </c>
       <c r="C8">
-        <v>23.61521669025781</v>
+        <v>23.61521669025777</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.19254453399976</v>
+        <v>18.19254453399969</v>
       </c>
       <c r="F8">
-        <v>40.18295847777206</v>
+        <v>40.18295847777204</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22.65908199672468</v>
+        <v>22.65908199672455</v>
       </c>
       <c r="I8">
-        <v>12.56216913360991</v>
+        <v>12.56216913360988</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.69803984416073</v>
+        <v>29.6980398441608</v>
       </c>
       <c r="C9">
-        <v>27.85709816857564</v>
+        <v>27.8570981685756</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.14389191404295</v>
+        <v>21.14389191404286</v>
       </c>
       <c r="F9">
-        <v>47.46636695329398</v>
+        <v>47.46636695329403</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25.35706826404643</v>
+        <v>25.35706826404648</v>
       </c>
       <c r="I9">
-        <v>14.18897975693636</v>
+        <v>14.18897975693637</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>32.70768623653343</v>
       </c>
       <c r="C10">
-        <v>30.79494003470596</v>
+        <v>30.79494003470577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.17270748330163</v>
+        <v>23.17270748330168</v>
       </c>
       <c r="F10">
-        <v>52.54480182911551</v>
+        <v>52.54480182911554</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.46606787815466</v>
+        <v>27.46606787815465</v>
       </c>
       <c r="I10">
-        <v>15.48234184758279</v>
+        <v>15.4823418475827</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.03913878494108</v>
+        <v>34.03913878494115</v>
       </c>
       <c r="C11">
-        <v>32.1028846973495</v>
+        <v>32.10288469734947</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.07113354760913</v>
+        <v>24.07113354760904</v>
       </c>
       <c r="F11">
-        <v>54.81129439323175</v>
+        <v>54.81129439323173</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.58179249825263</v>
+        <v>28.58179249825271</v>
       </c>
       <c r="I11">
-        <v>16.23335598782688</v>
+        <v>16.23335598782692</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.53883448470798</v>
+        <v>34.53883448470786</v>
       </c>
       <c r="C12">
-        <v>32.59514257418198</v>
+        <v>32.5951425741822</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.40843379883328</v>
+        <v>24.40843379883329</v>
       </c>
       <c r="F12">
-        <v>55.66492237871599</v>
+        <v>55.66492237871584</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29.04397394044517</v>
+        <v>29.04397394044491</v>
       </c>
       <c r="I12">
-        <v>16.51874914492906</v>
+        <v>16.51874914492889</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.43139937197991</v>
+        <v>34.43139937197999</v>
       </c>
       <c r="C13">
-        <v>32.48924146561827</v>
+        <v>32.48924146561829</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.33590862063465</v>
+        <v>24.33590862063457</v>
       </c>
       <c r="F13">
-        <v>55.48125465230235</v>
+        <v>55.48125465230252</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28.94430769749653</v>
+        <v>28.94430769749675</v>
       </c>
       <c r="I13">
-        <v>16.457224329828</v>
+        <v>16.45722432982809</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.08033322776317</v>
+        <v>34.08033322776319</v>
       </c>
       <c r="C14">
-        <v>32.14343690695005</v>
+        <v>32.14343690694994</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>24.09893788268159</v>
       </c>
       <c r="F14">
-        <v>54.88160520584786</v>
+        <v>54.88160520584792</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.61976105141581</v>
+        <v>28.61976105141587</v>
       </c>
       <c r="I14">
-        <v>16.25680978900381</v>
+        <v>16.25680978900379</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.86473997162337</v>
+        <v>33.8647399716234</v>
       </c>
       <c r="C15">
-        <v>31.93126219242168</v>
+        <v>31.93126219242154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.9534272751697</v>
+        <v>23.95342727516973</v>
       </c>
       <c r="F15">
-        <v>54.51375293368353</v>
+        <v>54.51375293368349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.4213169209091</v>
+        <v>28.42131692090899</v>
       </c>
       <c r="I15">
-        <v>16.134209149136</v>
+        <v>16.13420914913596</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.61998934435388</v>
+        <v>32.6199893443539</v>
       </c>
       <c r="C16">
-        <v>30.70897549092317</v>
+        <v>30.70897549092312</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.11354938991459</v>
+        <v>23.11354938991451</v>
       </c>
       <c r="F16">
-        <v>52.39593384900818</v>
+        <v>52.39593384900817</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.40185202730782</v>
+        <v>27.40185202730783</v>
       </c>
       <c r="I16">
-        <v>15.43335042913021</v>
+        <v>15.43335042913022</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.8473290872913</v>
+        <v>31.84732908729137</v>
       </c>
       <c r="C17">
-        <v>29.95253546505577</v>
+        <v>29.95253546505596</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.59243131019907</v>
+        <v>22.59243131019893</v>
       </c>
       <c r="F17">
-        <v>51.08658347178494</v>
+        <v>51.08658347178508</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26.84309334147578</v>
+        <v>26.84309334147594</v>
       </c>
       <c r="I17">
-        <v>15.08411185934207</v>
+        <v>15.08411185934214</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.39930712011799</v>
+        <v>31.39930712011797</v>
       </c>
       <c r="C18">
-        <v>29.51469415288837</v>
+        <v>29.51469415288832</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>22.29034950988967</v>
       </c>
       <c r="F18">
-        <v>50.32924812053153</v>
+        <v>50.32924812053155</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26.52494717411077</v>
+        <v>26.52494717411074</v>
       </c>
       <c r="I18">
-        <v>14.89241122484895</v>
+        <v>14.89241122484893</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.24696980883438</v>
+        <v>31.24696980883441</v>
       </c>
       <c r="C19">
-        <v>29.36594609864544</v>
+        <v>29.36594609864537</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.18764999426768</v>
+        <v>22.1876499942677</v>
       </c>
       <c r="F19">
-        <v>50.072056256697</v>
+        <v>50.07205625669702</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.9299474620414</v>
+        <v>31.92994746204158</v>
       </c>
       <c r="C20">
-        <v>30.03333811577972</v>
+        <v>30.03333811578009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.64814428572352</v>
+        <v>22.64814428572337</v>
       </c>
       <c r="F20">
-        <v>51.22639325507588</v>
+        <v>51.22639325507614</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26.90223342904245</v>
+        <v>26.90223342904261</v>
       </c>
       <c r="I20">
-        <v>15.11975286461268</v>
+        <v>15.11975286461277</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18356363161007</v>
+        <v>34.18356363161003</v>
       </c>
       <c r="C21">
-        <v>32.24508076153691</v>
+        <v>32.24508076153693</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.16861550564082</v>
+        <v>24.16861550564079</v>
       </c>
       <c r="F21">
-        <v>55.05784786237654</v>
+        <v>55.05784786237651</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28.71501298880478</v>
+        <v>28.71501298880476</v>
       </c>
       <c r="I21">
-        <v>16.31564143087394</v>
+        <v>16.31564143087391</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.6307986496313</v>
+        <v>35.63079864963131</v>
       </c>
       <c r="C22">
-        <v>33.67358029558372</v>
+        <v>33.67358029558362</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.14573273869333</v>
+        <v>25.14573273869338</v>
       </c>
       <c r="F22">
-        <v>57.53591053702698</v>
+        <v>57.53591053702694</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>30.06612288313243</v>
+        <v>30.06612288313234</v>
       </c>
       <c r="I22">
-        <v>17.14927670504355</v>
+        <v>17.14927670504348</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.86037143226566</v>
+        <v>34.86037143226574</v>
       </c>
       <c r="C23">
-        <v>32.91230385687526</v>
+        <v>32.91230385687523</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.62550748784052</v>
+        <v>24.62550748784039</v>
       </c>
       <c r="F23">
-        <v>56.21505684916698</v>
+        <v>56.21505684916711</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>29.34322682172607</v>
+        <v>29.34322682172639</v>
       </c>
       <c r="I23">
-        <v>16.70342701469344</v>
+        <v>16.70342701469361</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.89260762660705</v>
+        <v>31.89260762660725</v>
       </c>
       <c r="C24">
         <v>29.99681651533338</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.62296423088485</v>
+        <v>22.62296423088486</v>
       </c>
       <c r="F24">
-        <v>51.16319961297511</v>
+        <v>51.16319961297526</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26.87548663030935</v>
+        <v>26.87548663030948</v>
       </c>
       <c r="I24">
-        <v>15.10363355640285</v>
+        <v>15.10363355640292</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.55112713145748</v>
+        <v>28.5511271314577</v>
       </c>
       <c r="C25">
-        <v>26.74394065838986</v>
+        <v>26.74394065839005</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.37164836804866</v>
+        <v>20.37164836804842</v>
       </c>
       <c r="F25">
-        <v>45.54830303406885</v>
+        <v>45.54830303406906</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24.60688235992692</v>
+        <v>24.60688235992706</v>
       </c>
       <c r="I25">
-        <v>13.73713403408631</v>
+        <v>13.73713403408637</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.94330226063238</v>
+        <v>25.7885383513783</v>
       </c>
       <c r="C2">
-        <v>24.22505031814528</v>
+        <v>24.04279163042808</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.61815749239142</v>
+        <v>18.69630129054343</v>
       </c>
       <c r="F2">
-        <v>41.22525959097641</v>
+        <v>41.13973815015608</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.026013254448643</v>
       </c>
       <c r="H2">
-        <v>23.01907451094293</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.77966431828807</v>
+        <v>23.18008849207513</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.84417889546942</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.07335157277418</v>
+        <v>23.92521092357923</v>
       </c>
       <c r="C3">
-        <v>22.42869093705736</v>
+        <v>22.25552466645562</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.36345947891371</v>
+        <v>17.44585720090934</v>
       </c>
       <c r="F3">
-        <v>38.1607964558009</v>
+        <v>38.08911939102126</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.040726194802492</v>
       </c>
       <c r="H3">
-        <v>21.98777976866976</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.15593255074682</v>
+        <v>22.18219525778435</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.24143840458883</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.87165029641926</v>
+        <v>22.72762720672604</v>
       </c>
       <c r="C4">
-        <v>21.2783687393553</v>
+        <v>21.11096959129014</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.5586482542947</v>
+        <v>16.64398932922741</v>
       </c>
       <c r="F4">
-        <v>36.2086269240479</v>
+        <v>36.14606743047125</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.049861834023488</v>
       </c>
       <c r="H4">
-        <v>21.37532736897729</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.78432625132837</v>
+        <v>21.59136581204406</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.88346493651265</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.36809546768709</v>
+        <v>22.22576790670048</v>
       </c>
       <c r="C5">
-        <v>20.79726144949444</v>
+        <v>20.6322677642755</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.22181721242655</v>
+        <v>16.30845023985322</v>
       </c>
       <c r="F5">
-        <v>35.39488717473849</v>
+        <v>35.33622061819088</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.053616625480871</v>
       </c>
       <c r="H5">
-        <v>21.13084471291419</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.63565348252486</v>
+        <v>21.35595567696726</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.74052548752789</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.28363330998375</v>
+        <v>22.14158847613327</v>
       </c>
       <c r="C6">
-        <v>20.71661664460651</v>
+        <v>20.55202598140675</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.16534592470708</v>
+        <v>16.25219935521102</v>
       </c>
       <c r="F6">
-        <v>35.25865499265988</v>
+        <v>35.20064625639238</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.054242206915873</v>
       </c>
       <c r="H6">
-        <v>21.09055355057606</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.61113101455901</v>
+        <v>21.31718608638813</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.71696542010563</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.86491575176424</v>
+        <v>22.72091545164576</v>
       </c>
       <c r="C7">
-        <v>21.27193087299744</v>
+        <v>21.10456393029152</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.55414177181221</v>
+        <v>16.63949988304303</v>
       </c>
       <c r="F7">
-        <v>36.19772682108033</v>
+        <v>36.13521907991024</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.049912335254156</v>
       </c>
       <c r="H7">
-        <v>21.37200968694181</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.7823101259226</v>
+        <v>21.58816945821957</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.88152542800922</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.30941063479577</v>
+        <v>25.15692306166789</v>
       </c>
       <c r="C8">
-        <v>23.61521669025777</v>
+        <v>23.43606034958587</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.19254453399969</v>
+        <v>18.27209154173089</v>
       </c>
       <c r="F8">
-        <v>40.18295847777204</v>
+        <v>40.10209551450183</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.031069193863204</v>
       </c>
       <c r="H8">
-        <v>22.65908199672455</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>12.56216913360988</v>
+        <v>22.83137194372613</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.63376284407855</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.6980398441608</v>
+        <v>29.52903688577226</v>
       </c>
       <c r="C9">
-        <v>27.8570981685756</v>
+        <v>27.6558443935061</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.14389191404286</v>
+        <v>21.21430028374473</v>
       </c>
       <c r="F9">
-        <v>47.46636695329403</v>
+        <v>47.35345044605918</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.994594347086385</v>
       </c>
       <c r="H9">
-        <v>25.35706826404648</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.18897975693637</v>
+        <v>25.45267583280395</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.21248465714809</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.70768623653343</v>
+        <v>32.52612198215664</v>
       </c>
       <c r="C10">
-        <v>30.79494003470577</v>
+        <v>30.57734869982013</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.17270748330168</v>
+        <v>23.2372779837984</v>
       </c>
       <c r="F10">
-        <v>52.54480182911554</v>
+        <v>52.40937280389526</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.967535715490661</v>
       </c>
       <c r="H10">
-        <v>27.46606787815465</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>15.4823418475827</v>
+        <v>27.51117690465845</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.45141141884447</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.03913878494115</v>
+        <v>33.85160503217458</v>
       </c>
       <c r="C11">
-        <v>32.10288469734947</v>
+        <v>31.87762492808706</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.07113354760904</v>
+        <v>24.13312014967973</v>
       </c>
       <c r="F11">
-        <v>54.81129439323173</v>
+        <v>54.6654998586169</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.95501345085068</v>
       </c>
       <c r="H11">
-        <v>28.58179249825271</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>16.23335598782692</v>
+        <v>28.49460735498322</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>16.11438470214859</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.53883448470786</v>
+        <v>34.34898451816962</v>
       </c>
       <c r="C12">
-        <v>32.5951425741822</v>
+        <v>32.36692080762324</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.40843379883329</v>
+        <v>24.46944030917535</v>
       </c>
       <c r="F12">
-        <v>55.66492237871584</v>
+        <v>55.51514809827333</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.950224481985023</v>
       </c>
       <c r="H12">
-        <v>29.04397394044491</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>16.51874914492889</v>
+        <v>28.95023372364273</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>16.39647121480891</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.43139937197999</v>
+        <v>34.24205108757891</v>
       </c>
       <c r="C13">
-        <v>32.48924146561829</v>
+        <v>32.26166066473837</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.33590862063457</v>
+        <v>24.39712650360192</v>
       </c>
       <c r="F13">
-        <v>55.48125465230252</v>
+        <v>55.33234059059715</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.951258265236817</v>
       </c>
       <c r="H13">
-        <v>28.94430769749675</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>16.45722432982809</v>
+        <v>28.85197440196444</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>16.33565885204491</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.08033322776319</v>
+        <v>33.89261016489408</v>
       </c>
       <c r="C14">
-        <v>32.14343690694994</v>
+        <v>31.91793478086641</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.09893788268159</v>
+        <v>24.16084396276117</v>
       </c>
       <c r="F14">
-        <v>54.88160520584792</v>
+        <v>54.73548459096632</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.954620509432845</v>
       </c>
       <c r="H14">
-        <v>28.61976105141587</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>16.25680978900379</v>
+        <v>28.53203437197591</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>16.13756655580842</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.8647399716234</v>
+        <v>33.67800448710362</v>
       </c>
       <c r="C15">
-        <v>31.93126219242154</v>
+        <v>31.70702490931397</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.95342727516973</v>
+        <v>24.01575428390894</v>
       </c>
       <c r="F15">
-        <v>54.51375293368349</v>
+        <v>54.36933504028153</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.956673304954869</v>
       </c>
       <c r="H15">
-        <v>28.42131692090899</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>16.13420914913596</v>
+        <v>28.35436589044994</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>16.01638799751471</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.6199893443539</v>
+        <v>32.43880857878801</v>
       </c>
       <c r="C16">
-        <v>30.70897549092312</v>
+        <v>30.49187863819088</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.11354938991451</v>
+        <v>23.17828923513914</v>
       </c>
       <c r="F16">
-        <v>52.39593384900817</v>
+        <v>52.26117679009473</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.968348461075267</v>
       </c>
       <c r="H16">
-        <v>27.40185202730783</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>15.43335042913022</v>
+        <v>27.44840940514682</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>15.41360122333531</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.84732908729137</v>
+        <v>31.66947876594397</v>
       </c>
       <c r="C17">
-        <v>29.95253546505596</v>
+        <v>29.7397433254518</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.59243131019893</v>
+        <v>22.65866198608345</v>
       </c>
       <c r="F17">
-        <v>51.08658347178508</v>
+        <v>50.9576976161695</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.975445569769407</v>
       </c>
       <c r="H17">
-        <v>26.84309334147594</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>15.08411185934214</v>
+        <v>26.90246828665149</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>15.08485238114822</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.39930712011797</v>
+        <v>31.22334976508512</v>
       </c>
       <c r="C18">
-        <v>29.51469415288832</v>
+        <v>29.3043574877935</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.29034950988967</v>
+        <v>22.35744525527084</v>
       </c>
       <c r="F18">
-        <v>50.32924812053155</v>
+        <v>50.20373010342334</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.97950873547565</v>
       </c>
       <c r="H18">
-        <v>26.52494717411074</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.89241122484893</v>
+        <v>26.59180288269016</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>14.89785896161541</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.24696980883441</v>
+        <v>31.07164998488931</v>
       </c>
       <c r="C19">
-        <v>29.36594609864537</v>
+        <v>29.15643792757454</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.1876499942677</v>
+        <v>22.25504026441148</v>
       </c>
       <c r="F19">
-        <v>50.07205625669702</v>
+        <v>49.94767794850763</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.980881652226561</v>
       </c>
       <c r="H19">
-        <v>26.41776101471237</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.82783619485684</v>
+        <v>26.48716875955715</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.83488877212631</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.92994746204158</v>
+        <v>31.75174506965349</v>
       </c>
       <c r="C20">
-        <v>30.03333811578009</v>
+        <v>29.82009000564265</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.64814428572337</v>
+        <v>22.71421555382783</v>
       </c>
       <c r="F20">
-        <v>51.22639325507614</v>
+        <v>51.09688358243706</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.974692134808602</v>
       </c>
       <c r="H20">
-        <v>26.90223342904261</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>15.11975286461277</v>
+        <v>26.96023283803557</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.1196273272126</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.18356363161003</v>
+        <v>33.99536489425381</v>
       </c>
       <c r="C21">
-        <v>32.24508076153693</v>
+        <v>32.01896988343235</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.16861550564079</v>
+        <v>24.2303195984532</v>
       </c>
       <c r="F21">
-        <v>55.05784786237651</v>
+        <v>54.91090856249919</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.953634362615973</v>
       </c>
       <c r="H21">
-        <v>28.71501298880476</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>16.31564143087391</v>
+        <v>28.62593020243027</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.19571622940924</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.63079864963131</v>
+        <v>35.43572851269744</v>
       </c>
       <c r="C22">
-        <v>33.67358029558362</v>
+        <v>33.43870714712194</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.14573273869338</v>
+        <v>25.20456535321448</v>
       </c>
       <c r="F22">
-        <v>57.53591053702694</v>
+        <v>57.37723756081844</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.939587176455072</v>
       </c>
       <c r="H22">
-        <v>30.06612288313234</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>17.14927670504348</v>
+        <v>29.9581408718799</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>17.01969988727315</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.86037143226574</v>
+        <v>34.66900758400762</v>
       </c>
       <c r="C23">
-        <v>32.91230385687523</v>
+        <v>32.68214981482756</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.62550748784039</v>
+        <v>24.68587897671063</v>
       </c>
       <c r="F23">
-        <v>56.21505684916711</v>
+        <v>56.06269238945062</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.94711688860216</v>
       </c>
       <c r="H23">
-        <v>29.34322682172639</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>16.70342701469361</v>
+        <v>29.2452829092513</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.57901129245972</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.89260762660725</v>
+        <v>31.71456447193665</v>
       </c>
       <c r="C24">
-        <v>29.99681651533338</v>
+        <v>29.78377460806355</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.62296423088486</v>
+        <v>22.68910754155692</v>
       </c>
       <c r="F24">
-        <v>51.16319961297526</v>
+        <v>51.03397198903312</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.975032814691388</v>
       </c>
       <c r="H24">
-        <v>26.87548663030948</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>15.10363355640292</v>
+        <v>26.93410756940784</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.10389936479434</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.5511271314577</v>
+        <v>28.38662283341319</v>
       </c>
       <c r="C25">
-        <v>26.74394065839005</v>
+        <v>26.54862251931489</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.37164836804842</v>
+        <v>20.44433835566611</v>
       </c>
       <c r="F25">
-        <v>45.54830303406906</v>
+        <v>45.44377092899771</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.004462002371051</v>
       </c>
       <c r="H25">
-        <v>24.60688235992706</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>13.73713403408637</v>
+        <v>24.72219092205056</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>13.7729920776208</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -420,192 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>14.48978385986912</v>
+      </c>
+      <c r="C2">
+        <v>6.503197816030062</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.298381612701016</v>
+      </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>31.39572727769054</v>
+      </c>
+      <c r="G2">
+        <v>36.30689881457476</v>
+      </c>
+      <c r="H2">
+        <v>12.37629164565495</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>6.192624657046895</v>
+      </c>
+      <c r="K2">
+        <v>10.74211243666828</v>
+      </c>
+      <c r="L2">
+        <v>6.972649006977781</v>
+      </c>
+      <c r="M2">
+        <v>11.04668104415644</v>
+      </c>
+      <c r="N2">
+        <v>14.9111126745737</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>13.69295594526623</v>
+      </c>
+      <c r="C3">
+        <v>6.393675854171289</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8.223522610033653</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>30.84842925764729</v>
+      </c>
+      <c r="G3">
+        <v>35.86694413511978</v>
+      </c>
+      <c r="H3">
+        <v>12.40064626912812</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>6.212225454115383</v>
+      </c>
+      <c r="K3">
+        <v>10.02772532540536</v>
+      </c>
+      <c r="L3">
+        <v>6.849038695470446</v>
+      </c>
+      <c r="M3">
+        <v>10.72361522330915</v>
+      </c>
+      <c r="N3">
+        <v>15.12448023886277</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>13.18651665696759</v>
+      </c>
+      <c r="C4">
+        <v>6.32545165158986</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.180123198930513</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>30.5291919042932</v>
+      </c>
+      <c r="G4">
+        <v>35.62498892275162</v>
+      </c>
+      <c r="H4">
+        <v>12.42260702800328</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.224515990291934</v>
+      </c>
+      <c r="K4">
+        <v>9.564418488872155</v>
+      </c>
+      <c r="L4">
+        <v>6.774690576118701</v>
+      </c>
+      <c r="M4">
+        <v>10.52529156793627</v>
+      </c>
+      <c r="N4">
+        <v>15.25882632413146</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.9760395372193</v>
+      </c>
+      <c r="C5">
+        <v>6.297406166409653</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8.163088141230896</v>
+      </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>30.40336990334093</v>
+      </c>
+      <c r="G5">
+        <v>35.5333300576764</v>
+      </c>
+      <c r="H5">
+        <v>12.43325844976734</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>6.229592419255972</v>
+      </c>
+      <c r="K5">
+        <v>9.411647896187702</v>
+      </c>
+      <c r="L5">
+        <v>6.744811650142761</v>
+      </c>
+      <c r="M5">
+        <v>10.44459423517082</v>
+      </c>
+      <c r="N5">
+        <v>15.31442893007759</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.94084978987511</v>
+      </c>
+      <c r="C6">
+        <v>6.292734605969123</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.16029892193087</v>
+      </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>30.38273619931977</v>
+      </c>
+      <c r="G6">
+        <v>35.51852471077756</v>
+      </c>
+      <c r="H6">
+        <v>12.43512820344225</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6.230439562810935</v>
+      </c>
+      <c r="K6">
+        <v>9.386130085862048</v>
+      </c>
+      <c r="L6">
+        <v>6.739876394448159</v>
+      </c>
+      <c r="M6">
+        <v>10.43120518067579</v>
+      </c>
+      <c r="N6">
+        <v>15.32371383971343</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>13.18369435879785</v>
+      </c>
+      <c r="C7">
+        <v>6.325074403005662</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.179890817287641</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>30.52747768679112</v>
+      </c>
+      <c r="G7">
+        <v>35.6237248857902</v>
+      </c>
+      <c r="H7">
+        <v>12.42274386231624</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6.224584173020252</v>
+      </c>
+      <c r="K7">
+        <v>9.562221682742061</v>
+      </c>
+      <c r="L7">
+        <v>6.774285885826065</v>
+      </c>
+      <c r="M7">
+        <v>10.52420261383283</v>
+      </c>
+      <c r="N7">
+        <v>15.25957271516865</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>14.21872354913271</v>
+      </c>
+      <c r="C8">
+        <v>6.465638441461802</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8.272041735115062</v>
+      </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>31.20356031644188</v>
+      </c>
+      <c r="G8">
+        <v>36.1492715081749</v>
+      </c>
+      <c r="H8">
+        <v>12.38319844749929</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6.1993322501693</v>
+      </c>
+      <c r="K8">
+        <v>10.50088974519446</v>
+      </c>
+      <c r="L8">
+        <v>6.929724135400306</v>
+      </c>
+      <c r="M8">
+        <v>10.93534436502124</v>
+      </c>
+      <c r="N8">
+        <v>14.98399897969466</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>16.10448395942977</v>
+      </c>
+      <c r="C9">
+        <v>6.733503666353975</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8.47280618269294</v>
+      </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>32.66036660456794</v>
+      </c>
+      <c r="G9">
+        <v>37.40913977634552</v>
+      </c>
+      <c r="H9">
+        <v>12.36399979363147</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6.151662809707735</v>
+      </c>
+      <c r="K9">
+        <v>12.14844388675021</v>
+      </c>
+      <c r="L9">
+        <v>7.245555680713594</v>
+      </c>
+      <c r="M9">
+        <v>11.73737990358811</v>
+      </c>
+      <c r="N9">
+        <v>14.46932955628915</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>17.39468708108874</v>
+      </c>
+      <c r="C10">
+        <v>6.92564438582397</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8.632108205537271</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>33.80711461725443</v>
+      </c>
+      <c r="G10">
+        <v>38.481291070605</v>
+      </c>
+      <c r="H10">
+        <v>12.38936375054795</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6.117499029013659</v>
+      </c>
+      <c r="K10">
+        <v>13.24335523436808</v>
+      </c>
+      <c r="L10">
+        <v>7.482647005016185</v>
+      </c>
+      <c r="M10">
+        <v>12.3185878471662</v>
+      </c>
+      <c r="N10">
+        <v>14.10582321291822</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>17.95999472432172</v>
+      </c>
+      <c r="C11">
+        <v>7.012094666700213</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8.707041057234312</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>34.34463776081682</v>
+      </c>
+      <c r="G11">
+        <v>39.00204920041517</v>
+      </c>
+      <c r="H11">
+        <v>12.41034723306212</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>6.102078191133545</v>
+      </c>
+      <c r="K11">
+        <v>13.71701636940606</v>
+      </c>
+      <c r="L11">
+        <v>7.591269360900441</v>
+      </c>
+      <c r="M11">
+        <v>12.5802709736691</v>
+      </c>
+      <c r="N11">
+        <v>13.9433980845232</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>18.17090801457877</v>
+      </c>
+      <c r="C12">
+        <v>7.044700243515606</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>8.735761762230194</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>34.5504031646185</v>
+      </c>
+      <c r="G12">
+        <v>39.2040802459716</v>
+      </c>
+      <c r="H12">
+        <v>12.41972586431421</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>6.096250099434563</v>
+      </c>
+      <c r="K12">
+        <v>13.89292450260026</v>
+      </c>
+      <c r="L12">
+        <v>7.632486398866514</v>
+      </c>
+      <c r="M12">
+        <v>12.67890519628501</v>
+      </c>
+      <c r="N12">
+        <v>13.88229569444185</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>18.12562498819269</v>
+      </c>
+      <c r="C13">
+        <v>7.037683766787612</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>8.729561035522417</v>
+      </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>34.50599023976497</v>
+      </c>
+      <c r="G13">
+        <v>39.16035311731789</v>
+      </c>
+      <c r="H13">
+        <v>12.41764108312932</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>6.097504873355582</v>
+      </c>
+      <c r="K13">
+        <v>13.85519238842277</v>
+      </c>
+      <c r="L13">
+        <v>7.623606229904643</v>
+      </c>
+      <c r="M13">
+        <v>12.65768398937201</v>
+      </c>
+      <c r="N13">
+        <v>13.89543747750821</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>17.9774101476734</v>
+      </c>
+      <c r="C14">
+        <v>7.014779735200458</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8.709397060169453</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>34.36152211210199</v>
+      </c>
+      <c r="G14">
+        <v>39.01857313809516</v>
+      </c>
+      <c r="H14">
+        <v>12.41108967248321</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>6.101598516645875</v>
+      </c>
+      <c r="K14">
+        <v>13.73155739787488</v>
+      </c>
+      <c r="L14">
+        <v>7.594658769663957</v>
+      </c>
+      <c r="M14">
+        <v>12.58839524255528</v>
+      </c>
+      <c r="N14">
+        <v>13.93836314832412</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.88621215063701</v>
+      </c>
+      <c r="C15">
+        <v>7.000733477813598</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8.697090732292596</v>
+      </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>34.27331816107647</v>
+      </c>
+      <c r="G15">
+        <v>38.93236032553666</v>
+      </c>
+      <c r="H15">
+        <v>12.40726556202814</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6.104107298685759</v>
+      </c>
+      <c r="K15">
+        <v>13.65537885967051</v>
+      </c>
+      <c r="L15">
+        <v>7.576937819255121</v>
+      </c>
+      <c r="M15">
+        <v>12.54589214965155</v>
+      </c>
+      <c r="N15">
+        <v>13.96470851496863</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>17.35730333324693</v>
+      </c>
+      <c r="C16">
+        <v>6.919975905749917</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>8.627259985628614</v>
+      </c>
       <c r="F16">
-        <v>37.63463543028811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>33.77229978995224</v>
+      </c>
+      <c r="G16">
+        <v>38.44793003531547</v>
+      </c>
+      <c r="H16">
+        <v>12.38818880711299</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>6.118508750043095</v>
+      </c>
+      <c r="K16">
+        <v>13.21191355742243</v>
+      </c>
+      <c r="L16">
+        <v>7.475561440060817</v>
+      </c>
+      <c r="M16">
+        <v>12.30142550127619</v>
+      </c>
+      <c r="N16">
+        <v>14.11649563735578</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>17.02725766632149</v>
+      </c>
+      <c r="C17">
+        <v>6.870192729817356</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8.58504595493301</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>33.46895646934718</v>
+      </c>
+      <c r="G17">
+        <v>38.15926731041568</v>
+      </c>
+      <c r="H17">
+        <v>12.37895728250316</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>6.127370400467661</v>
+      </c>
+      <c r="K17">
+        <v>12.93364518815192</v>
+      </c>
+      <c r="L17">
+        <v>7.413547727895385</v>
+      </c>
+      <c r="M17">
+        <v>12.15070599603765</v>
+      </c>
+      <c r="N17">
+        <v>14.2103514163805</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>16.83539125989795</v>
+      </c>
+      <c r="C18">
+        <v>6.841468337345516</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>8.560998191811416</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>33.29597793366291</v>
+      </c>
+      <c r="G18">
+        <v>37.99634076627555</v>
+      </c>
+      <c r="H18">
+        <v>12.37453201029603</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6.132479104343553</v>
+      </c>
+      <c r="K18">
+        <v>12.77129063584215</v>
+      </c>
+      <c r="L18">
+        <v>7.377952865772015</v>
+      </c>
+      <c r="M18">
+        <v>12.06376445811101</v>
+      </c>
+      <c r="N18">
+        <v>14.26461215657767</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>16.77008129648493</v>
+      </c>
+      <c r="C19">
+        <v>6.831727068093885</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>8.552896270733742</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>33.23766944936248</v>
+      </c>
+      <c r="G19">
+        <v>37.94170730018287</v>
+      </c>
+      <c r="H19">
+        <v>12.37318336248511</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6.134211006824041</v>
+      </c>
+      <c r="K19">
+        <v>12.71592320965358</v>
+      </c>
+      <c r="L19">
+        <v>7.365914564959876</v>
+      </c>
+      <c r="M19">
+        <v>12.03428660893301</v>
+      </c>
+      <c r="N19">
+        <v>14.28303209159021</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>17.06260240828608</v>
+      </c>
+      <c r="C20">
+        <v>6.875501554958095</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>8.589515701670228</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>33.50109348299621</v>
+      </c>
+      <c r="G20">
+        <v>38.18967403028812</v>
+      </c>
+      <c r="H20">
+        <v>12.37984792387518</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>6.126425890919296</v>
+      </c>
+      <c r="K20">
+        <v>12.96350519026748</v>
+      </c>
+      <c r="L20">
+        <v>7.4201417542718</v>
+      </c>
+      <c r="M20">
+        <v>12.16677692722892</v>
+      </c>
+      <c r="N20">
+        <v>14.20033172936233</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>18.02103038234554</v>
+      </c>
+      <c r="C21">
+        <v>7.021510707571157</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>8.715310411684943</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>34.40389620697083</v>
+      </c>
+      <c r="G21">
+        <v>39.06008560642035</v>
+      </c>
+      <c r="H21">
+        <v>12.41297449532884</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>6.100395853163405</v>
+      </c>
+      <c r="K21">
+        <v>13.76796536409348</v>
+      </c>
+      <c r="L21">
+        <v>7.603159257951334</v>
+      </c>
+      <c r="M21">
+        <v>12.60876000267079</v>
+      </c>
+      <c r="N21">
+        <v>13.92574400075736</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>18.6290128060648</v>
+      </c>
+      <c r="C22">
+        <v>7.116175412511121</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>8.799532793426202</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>35.00682870753118</v>
+      </c>
+      <c r="G22">
+        <v>39.65714603950278</v>
+      </c>
+      <c r="H22">
+        <v>12.44301124801586</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>6.083447318730602</v>
+      </c>
+      <c r="K22">
+        <v>14.27360397086866</v>
+      </c>
+      <c r="L22">
+        <v>7.723251285551151</v>
+      </c>
+      <c r="M22">
+        <v>12.89491802622657</v>
+      </c>
+      <c r="N22">
+        <v>13.74863463391645</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>18.30621573482377</v>
+      </c>
+      <c r="C23">
+        <v>7.065718090984266</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8.754400993189874</v>
+      </c>
       <c r="F23">
-        <v>40.0141422503843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>34.68387117530983</v>
+      </c>
+      <c r="G23">
+        <v>39.33587759258305</v>
+      </c>
+      <c r="H23">
+        <v>12.4261875374886</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6.092489330179408</v>
+      </c>
+      <c r="K23">
+        <v>14.00555745670788</v>
+      </c>
+      <c r="L23">
+        <v>7.65912021313843</v>
+      </c>
+      <c r="M23">
+        <v>12.74245786384687</v>
+      </c>
+      <c r="N23">
+        <v>13.84295203365571</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>17.04662964596347</v>
+      </c>
+      <c r="C24">
+        <v>6.873101757556912</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>8.587494238086485</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>33.48655991872445</v>
+      </c>
+      <c r="G24">
+        <v>38.17591772218645</v>
+      </c>
+      <c r="H24">
+        <v>12.37944252311726</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>6.126852859569947</v>
+      </c>
+      <c r="K24">
+        <v>12.95001288299029</v>
+      </c>
+      <c r="L24">
+        <v>7.417160413362807</v>
+      </c>
+      <c r="M24">
+        <v>12.15951215988412</v>
+      </c>
+      <c r="N24">
+        <v>14.20486068847477</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>15.61064874418596</v>
+      </c>
+      <c r="C25">
+        <v>6.661868921062259</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>8.416388525787763</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>32.25257641428865</v>
+      </c>
+      <c r="G25">
+        <v>37.04301450510633</v>
+      </c>
+      <c r="H25">
+        <v>12.36255113129029</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>6.16438711514077</v>
+      </c>
+      <c r="K25">
+        <v>11.72323585270679</v>
+      </c>
+      <c r="L25">
+        <v>7.159110304249597</v>
+      </c>
+      <c r="M25">
+        <v>11.52145804677864</v>
+      </c>
+      <c r="N25">
+        <v>14.60591600546083</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48978385986912</v>
+        <v>15.93002969492931</v>
       </c>
       <c r="C2">
-        <v>6.503197816030062</v>
+        <v>8.409604367810166</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.298381612701016</v>
+        <v>14.1873705680483</v>
       </c>
       <c r="F2">
-        <v>31.39572727769054</v>
+        <v>44.21552489145481</v>
       </c>
       <c r="G2">
-        <v>36.30689881457476</v>
+        <v>48.60556165666967</v>
       </c>
       <c r="H2">
-        <v>12.37629164565495</v>
+        <v>19.3085868293916</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.192624657046895</v>
+        <v>9.409833416744263</v>
       </c>
       <c r="K2">
-        <v>10.74211243666828</v>
+        <v>11.79130365214296</v>
       </c>
       <c r="L2">
-        <v>6.972649006977781</v>
+        <v>11.61897990344499</v>
       </c>
       <c r="M2">
-        <v>11.04668104415644</v>
+        <v>16.79059600469641</v>
       </c>
       <c r="N2">
-        <v>14.9111126745737</v>
+        <v>22.74105422421475</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69295594526623</v>
+        <v>15.7817465609243</v>
       </c>
       <c r="C3">
-        <v>6.393675854171289</v>
+        <v>8.377977149994367</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.223522610033653</v>
+        <v>14.20153077677018</v>
       </c>
       <c r="F3">
-        <v>30.84842925764729</v>
+        <v>44.23310394848778</v>
       </c>
       <c r="G3">
-        <v>35.86694413511978</v>
+        <v>48.65555199953246</v>
       </c>
       <c r="H3">
-        <v>12.40064626912812</v>
+        <v>19.35373911895653</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.212225454115383</v>
+        <v>9.413562132509229</v>
       </c>
       <c r="K3">
-        <v>10.02772532540536</v>
+        <v>11.68717809337669</v>
       </c>
       <c r="L3">
-        <v>6.849038695470446</v>
+        <v>11.62263412457405</v>
       </c>
       <c r="M3">
-        <v>10.72361522330915</v>
+        <v>16.77372773054288</v>
       </c>
       <c r="N3">
-        <v>15.12448023886277</v>
+        <v>22.80389720399781</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18651665696759</v>
+        <v>15.69357920611757</v>
       </c>
       <c r="C4">
-        <v>6.32545165158986</v>
+        <v>8.358064397364053</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.180123198930513</v>
+        <v>14.21174150322037</v>
       </c>
       <c r="F4">
-        <v>30.5291919042932</v>
+        <v>44.25261380361287</v>
       </c>
       <c r="G4">
-        <v>35.62498892275162</v>
+        <v>48.69725560778203</v>
       </c>
       <c r="H4">
-        <v>12.42260702800328</v>
+        <v>19.38423926403386</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.224515990291934</v>
+        <v>9.415982752121087</v>
       </c>
       <c r="K4">
-        <v>9.564418488872155</v>
+        <v>11.62533432285984</v>
       </c>
       <c r="L4">
-        <v>6.774690576118701</v>
+        <v>11.62629440247583</v>
       </c>
       <c r="M4">
-        <v>10.52529156793627</v>
+        <v>16.76593501181218</v>
       </c>
       <c r="N4">
-        <v>15.25882632413146</v>
+        <v>22.84436939749173</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.9760395372193</v>
+        <v>15.65841184789029</v>
       </c>
       <c r="C5">
-        <v>6.297406166409653</v>
+        <v>8.349826534837717</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.163088141230896</v>
+        <v>14.21628448326076</v>
       </c>
       <c r="F5">
-        <v>30.40336990334093</v>
+        <v>44.26275659832651</v>
       </c>
       <c r="G5">
-        <v>35.5333300576764</v>
+        <v>48.71701380451025</v>
       </c>
       <c r="H5">
-        <v>12.43325844976734</v>
+        <v>19.3973662533933</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.229592419255972</v>
+        <v>9.417002286430867</v>
       </c>
       <c r="K5">
-        <v>9.411647896187702</v>
+        <v>11.60068344252136</v>
       </c>
       <c r="L5">
-        <v>6.744811650142761</v>
+        <v>11.62814315930414</v>
       </c>
       <c r="M5">
-        <v>10.44459423517082</v>
+        <v>16.76340765192921</v>
       </c>
       <c r="N5">
-        <v>15.31442893007759</v>
+        <v>22.86133766276007</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.94084978987511</v>
+        <v>15.65261940052942</v>
       </c>
       <c r="C6">
-        <v>6.292734605969123</v>
+        <v>8.3484512243681</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.16029892193087</v>
+        <v>14.21706193599248</v>
       </c>
       <c r="F6">
-        <v>30.38273619931977</v>
+        <v>44.26457321526468</v>
       </c>
       <c r="G6">
-        <v>35.51852471077756</v>
+        <v>48.7204613952821</v>
       </c>
       <c r="H6">
-        <v>12.43512820344225</v>
+        <v>19.39958812618726</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.230439562810935</v>
+        <v>9.41717358296542</v>
       </c>
       <c r="K6">
-        <v>9.386130085862048</v>
+        <v>11.59662418336499</v>
       </c>
       <c r="L6">
-        <v>6.739876394448159</v>
+        <v>11.628471742157</v>
       </c>
       <c r="M6">
-        <v>10.43120518067579</v>
+        <v>16.76302722973331</v>
       </c>
       <c r="N6">
-        <v>15.32371383971343</v>
+        <v>22.86418398516883</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18369435879785</v>
+        <v>15.69310179475469</v>
       </c>
       <c r="C7">
-        <v>6.325074403005662</v>
+        <v>8.357953796600066</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.179890817287641</v>
+        <v>14.21180122366939</v>
       </c>
       <c r="F7">
-        <v>30.52747768679112</v>
+        <v>44.25274171597516</v>
       </c>
       <c r="G7">
-        <v>35.6237248857902</v>
+        <v>48.6975108909964</v>
       </c>
       <c r="H7">
-        <v>12.42274386231624</v>
+        <v>19.38441347364265</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.224584173020252</v>
+        <v>9.415996367682649</v>
       </c>
       <c r="K7">
-        <v>9.562221682742061</v>
+        <v>11.62499960877324</v>
       </c>
       <c r="L7">
-        <v>6.774285885826065</v>
+        <v>11.62631788810685</v>
       </c>
       <c r="M7">
-        <v>10.52420261383283</v>
+        <v>16.76589829805916</v>
       </c>
       <c r="N7">
-        <v>15.25957271516865</v>
+        <v>22.84459631054526</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21872354913271</v>
+        <v>15.87832709318426</v>
       </c>
       <c r="C8">
-        <v>6.465638441461802</v>
+        <v>8.398802233916827</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.272041735115062</v>
+        <v>14.19193875326102</v>
       </c>
       <c r="F8">
-        <v>31.20356031644188</v>
+        <v>44.21977770988585</v>
       </c>
       <c r="G8">
-        <v>36.1492715081749</v>
+        <v>48.62051078994874</v>
       </c>
       <c r="H8">
-        <v>12.38319844749929</v>
+        <v>19.32357895437734</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.1993322501693</v>
+        <v>9.411091929838911</v>
       </c>
       <c r="K8">
-        <v>10.50088974519446</v>
+        <v>11.75498302037837</v>
       </c>
       <c r="L8">
-        <v>6.929724135400306</v>
+        <v>11.61994646400655</v>
       </c>
       <c r="M8">
-        <v>10.93534436502124</v>
+        <v>16.78424969174372</v>
       </c>
       <c r="N8">
-        <v>14.98399897969466</v>
+        <v>22.76233168469425</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.10448395942977</v>
+        <v>16.26268236086304</v>
       </c>
       <c r="C9">
-        <v>6.733503666353975</v>
+        <v>8.474954982837053</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.47280618269294</v>
+        <v>14.16498656190574</v>
       </c>
       <c r="F9">
-        <v>32.66036660456794</v>
+        <v>44.22423587378297</v>
       </c>
       <c r="G9">
-        <v>37.40913977634552</v>
+        <v>48.55703896948171</v>
       </c>
       <c r="H9">
-        <v>12.36399979363147</v>
+        <v>19.22632256561009</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.151662809707735</v>
+        <v>9.40250937094468</v>
       </c>
       <c r="K9">
-        <v>12.14844388675021</v>
+        <v>12.02529673639212</v>
       </c>
       <c r="L9">
-        <v>7.245555680713594</v>
+        <v>11.61864790803392</v>
       </c>
       <c r="M9">
-        <v>11.73737990358811</v>
+        <v>16.84042362964857</v>
       </c>
       <c r="N9">
-        <v>14.46932955628915</v>
+        <v>22.61592358544795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39468708108874</v>
+        <v>16.55557922147655</v>
       </c>
       <c r="C10">
-        <v>6.92564438582397</v>
+        <v>8.528451676146089</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.632108205537271</v>
+        <v>14.15245367777285</v>
       </c>
       <c r="F10">
-        <v>33.80711461725443</v>
+        <v>44.26950887390417</v>
       </c>
       <c r="G10">
-        <v>38.481291070605</v>
+        <v>48.56393620008741</v>
       </c>
       <c r="H10">
-        <v>12.38936375054795</v>
+        <v>19.16831755252309</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.117499029013659</v>
+        <v>9.396826743915192</v>
       </c>
       <c r="K10">
-        <v>13.24335523436808</v>
+        <v>12.231682333644</v>
       </c>
       <c r="L10">
-        <v>7.482647005016185</v>
+        <v>11.62445681195913</v>
       </c>
       <c r="M10">
-        <v>12.3185878471662</v>
+        <v>16.89376696692195</v>
       </c>
       <c r="N10">
-        <v>14.10582321291822</v>
+        <v>22.51737072336066</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.95999472432172</v>
+        <v>16.69059012315815</v>
       </c>
       <c r="C11">
-        <v>7.012094666700213</v>
+        <v>8.552246819643768</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.707041057234312</v>
+        <v>14.14832007060349</v>
       </c>
       <c r="F11">
-        <v>34.34463776081682</v>
+        <v>44.29917714554275</v>
       </c>
       <c r="G11">
-        <v>39.00204920041517</v>
+        <v>48.57871027101633</v>
       </c>
       <c r="H11">
-        <v>12.41034723306212</v>
+        <v>19.14485228824512</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.102078191133545</v>
+        <v>9.394375138322902</v>
       </c>
       <c r="K11">
-        <v>13.71701636940606</v>
+        <v>12.32690952715592</v>
       </c>
       <c r="L11">
-        <v>7.591269360900441</v>
+        <v>11.62855300708967</v>
       </c>
       <c r="M11">
-        <v>12.5802709736691</v>
+        <v>16.92059881133781</v>
       </c>
       <c r="N11">
-        <v>13.9433980845232</v>
+        <v>22.47447705398957</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.17090801457877</v>
+        <v>16.74192603970557</v>
       </c>
       <c r="C12">
-        <v>7.044700243515606</v>
+        <v>8.561178787286556</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.735761762230194</v>
+        <v>14.14697924350472</v>
       </c>
       <c r="F12">
-        <v>34.5504031646185</v>
+        <v>44.31171069514051</v>
       </c>
       <c r="G12">
-        <v>39.2040802459716</v>
+        <v>48.58597693010481</v>
       </c>
       <c r="H12">
-        <v>12.41972586431421</v>
+        <v>19.13638686508169</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.096250099434563</v>
+        <v>9.393465836304824</v>
       </c>
       <c r="K12">
-        <v>13.89292450260026</v>
+        <v>12.36313243006933</v>
       </c>
       <c r="L12">
-        <v>7.632486398866514</v>
+        <v>11.63031173269107</v>
       </c>
       <c r="M12">
-        <v>12.67890519628501</v>
+        <v>16.93112287315685</v>
       </c>
       <c r="N12">
-        <v>13.88229569444185</v>
+        <v>22.45851189406622</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.12562498819269</v>
+        <v>16.73086128774706</v>
       </c>
       <c r="C13">
-        <v>7.037683766787612</v>
+        <v>8.559258645600394</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.729561035522417</v>
+        <v>14.14725804638998</v>
       </c>
       <c r="F13">
-        <v>34.50599023976497</v>
+        <v>44.30895371077767</v>
       </c>
       <c r="G13">
-        <v>39.16035311731789</v>
+        <v>48.58433759461395</v>
       </c>
       <c r="H13">
-        <v>12.41764108312932</v>
+        <v>19.13819134600586</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.097504873355582</v>
+        <v>9.393660824656367</v>
       </c>
       <c r="K13">
-        <v>13.85519238842277</v>
+        <v>12.35532444047581</v>
       </c>
       <c r="L13">
-        <v>7.623606229904643</v>
+        <v>11.62992375137128</v>
       </c>
       <c r="M13">
-        <v>12.65768398937201</v>
+        <v>16.9288402561333</v>
       </c>
       <c r="N13">
-        <v>13.89543747750821</v>
+        <v>22.46193794027352</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.9774101476734</v>
+        <v>16.69480960074965</v>
       </c>
       <c r="C14">
-        <v>7.014779735200458</v>
+        <v>8.552983241581311</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.709397060169453</v>
+        <v>14.14820526662907</v>
       </c>
       <c r="F14">
-        <v>34.36152211210199</v>
+        <v>44.30018229548278</v>
       </c>
       <c r="G14">
-        <v>39.01857313809516</v>
+        <v>48.57927460514554</v>
       </c>
       <c r="H14">
-        <v>12.41108967248321</v>
+        <v>19.14414740676033</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.101598516645875</v>
+        <v>9.394299948049509</v>
       </c>
       <c r="K14">
-        <v>13.73155739787488</v>
+        <v>12.32988652624771</v>
       </c>
       <c r="L14">
-        <v>7.594658769663957</v>
+        <v>11.62869354683453</v>
       </c>
       <c r="M14">
-        <v>12.58839524255528</v>
+        <v>16.92145738145527</v>
       </c>
       <c r="N14">
-        <v>13.93836314832412</v>
+        <v>22.47315803007897</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.88621215063701</v>
+        <v>16.67275296207101</v>
       </c>
       <c r="C15">
-        <v>7.000733477813598</v>
+        <v>8.549129092645556</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.697090732292596</v>
+        <v>14.14881467139408</v>
       </c>
       <c r="F15">
-        <v>34.27331816107647</v>
+        <v>44.29497850179546</v>
       </c>
       <c r="G15">
-        <v>38.93236032553666</v>
+        <v>48.57639106701509</v>
       </c>
       <c r="H15">
-        <v>12.40726556202814</v>
+        <v>19.14785041654865</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.104107298685759</v>
+        <v>9.39469390915734</v>
       </c>
       <c r="K15">
-        <v>13.65537885967051</v>
+        <v>12.3143253186917</v>
       </c>
       <c r="L15">
-        <v>7.576937819255121</v>
+        <v>11.62796700007381</v>
       </c>
       <c r="M15">
-        <v>12.54589214965155</v>
+        <v>16.91698231670127</v>
       </c>
       <c r="N15">
-        <v>13.96470851496863</v>
+        <v>22.48006679935344</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.35730333324693</v>
+        <v>16.54678777476495</v>
       </c>
       <c r="C16">
-        <v>6.919975905749917</v>
+        <v>8.526885642561382</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.627259985628614</v>
+        <v>14.15275528417024</v>
       </c>
       <c r="F16">
-        <v>33.77229978995224</v>
+        <v>44.26775207914949</v>
       </c>
       <c r="G16">
-        <v>38.44793003531547</v>
+        <v>48.56320475609955</v>
       </c>
       <c r="H16">
-        <v>12.38818880711299</v>
+        <v>19.16990987346628</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.118508750043095</v>
+        <v>9.396989637009241</v>
       </c>
       <c r="K16">
-        <v>13.21191355742243</v>
+        <v>12.22548340152055</v>
       </c>
       <c r="L16">
-        <v>7.475561440060817</v>
+        <v>11.62421824580649</v>
       </c>
       <c r="M16">
-        <v>12.30142550127619</v>
+        <v>16.8920646069374</v>
       </c>
       <c r="N16">
-        <v>14.11649563735578</v>
+        <v>22.52021284640872</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02725766632149</v>
+        <v>16.46993411811573</v>
       </c>
       <c r="C17">
-        <v>6.870192729817356</v>
+        <v>8.513100808720054</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.58504595493301</v>
+        <v>14.15557357927648</v>
       </c>
       <c r="F17">
-        <v>33.46895646934718</v>
+        <v>44.25336956908266</v>
       </c>
       <c r="G17">
-        <v>38.15926731041568</v>
+        <v>48.5580952656485</v>
       </c>
       <c r="H17">
-        <v>12.37895728250316</v>
+        <v>19.18419109612753</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.127370400467661</v>
+        <v>9.398432084375894</v>
       </c>
       <c r="K17">
-        <v>12.93364518815192</v>
+        <v>12.17130366423292</v>
       </c>
       <c r="L17">
-        <v>7.413547727895385</v>
+        <v>11.62228982694005</v>
       </c>
       <c r="M17">
-        <v>12.15070599603765</v>
+        <v>16.87743171419847</v>
       </c>
       <c r="N17">
-        <v>14.2103514163805</v>
+        <v>22.5453369207374</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83539125989795</v>
+        <v>16.42589925098094</v>
       </c>
       <c r="C18">
-        <v>6.841468337345516</v>
+        <v>8.505121295380965</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.560998191811416</v>
+        <v>14.15734220377301</v>
       </c>
       <c r="F18">
-        <v>33.29597793366291</v>
+        <v>44.24595157601573</v>
       </c>
       <c r="G18">
-        <v>37.99634076627555</v>
+        <v>48.55625186008691</v>
       </c>
       <c r="H18">
-        <v>12.37453201029603</v>
+        <v>19.19268025075784</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.132479104343553</v>
+        <v>9.399274310144591</v>
       </c>
       <c r="K18">
-        <v>12.77129063584215</v>
+        <v>12.14026899668027</v>
       </c>
       <c r="L18">
-        <v>7.377952865772015</v>
+        <v>11.62131757289042</v>
       </c>
       <c r="M18">
-        <v>12.06376445811101</v>
+        <v>16.8692571081252</v>
       </c>
       <c r="N18">
-        <v>14.26461215657767</v>
+        <v>22.55997014632531</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.77008129648493</v>
+        <v>16.41102023666649</v>
       </c>
       <c r="C19">
-        <v>6.831727068093885</v>
+        <v>8.502410866873293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.552896270733742</v>
+        <v>14.15796641089076</v>
       </c>
       <c r="F19">
-        <v>33.23766944936248</v>
+        <v>44.24358688660914</v>
       </c>
       <c r="G19">
-        <v>37.94170730018287</v>
+        <v>48.55581587507434</v>
       </c>
       <c r="H19">
-        <v>12.37318336248511</v>
+        <v>19.19560175123357</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.134211006824041</v>
+        <v>9.399561635651931</v>
       </c>
       <c r="K19">
-        <v>12.71592320965358</v>
+        <v>12.12978411730199</v>
       </c>
       <c r="L19">
-        <v>7.365914564959876</v>
+        <v>11.62101194359121</v>
       </c>
       <c r="M19">
-        <v>12.03428660893301</v>
+        <v>16.86653102707566</v>
       </c>
       <c r="N19">
-        <v>14.28303209159021</v>
+        <v>22.56495608470535</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06260240828608</v>
+        <v>16.47809811856094</v>
       </c>
       <c r="C20">
-        <v>6.875501554958095</v>
+        <v>8.514573496789756</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.589515701670228</v>
+        <v>14.15525829600778</v>
       </c>
       <c r="F20">
-        <v>33.50109348299621</v>
+        <v>44.25481221943973</v>
       </c>
       <c r="G20">
-        <v>38.18967403028812</v>
+        <v>48.55852581098081</v>
       </c>
       <c r="H20">
-        <v>12.37984792387518</v>
+        <v>19.18264237493664</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.126425890919296</v>
+        <v>9.39827723351218</v>
       </c>
       <c r="K20">
-        <v>12.96350519026748</v>
+        <v>12.17705815401589</v>
       </c>
       <c r="L20">
-        <v>7.4201417542718</v>
+        <v>11.62248094981106</v>
       </c>
       <c r="M20">
-        <v>12.16677692722892</v>
+        <v>16.87896441929094</v>
       </c>
       <c r="N20">
-        <v>14.20033172936233</v>
+        <v>22.54264353711963</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.02103038234554</v>
+        <v>16.70539350316381</v>
       </c>
       <c r="C21">
-        <v>7.021510707571157</v>
+        <v>8.554828624520978</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.715310411684943</v>
+        <v>14.14792096054338</v>
       </c>
       <c r="F21">
-        <v>34.40389620697083</v>
+        <v>44.30272347544162</v>
       </c>
       <c r="G21">
-        <v>39.06008560642035</v>
+        <v>48.58071636573998</v>
       </c>
       <c r="H21">
-        <v>12.41297449532884</v>
+        <v>19.14238655696159</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.100395853163405</v>
+        <v>9.394111705491879</v>
       </c>
       <c r="K21">
-        <v>13.76796536409348</v>
+        <v>12.33735409263943</v>
       </c>
       <c r="L21">
-        <v>7.603159257951334</v>
+        <v>11.62904926595899</v>
       </c>
       <c r="M21">
-        <v>12.60876000267079</v>
+        <v>16.92361609309622</v>
       </c>
       <c r="N21">
-        <v>13.92574400075736</v>
+        <v>22.46985488790882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.6290128060648</v>
+        <v>16.85514902260531</v>
       </c>
       <c r="C22">
-        <v>7.116175412511121</v>
+        <v>8.580678287563556</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.799532793426202</v>
+        <v>14.14443355721742</v>
       </c>
       <c r="F22">
-        <v>35.00682870753118</v>
+        <v>44.34160329488854</v>
       </c>
       <c r="G22">
-        <v>39.65714603950278</v>
+        <v>48.60496359872558</v>
       </c>
       <c r="H22">
-        <v>12.44301124801586</v>
+        <v>19.11852734247334</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.083447318730602</v>
+        <v>9.391500377604315</v>
       </c>
       <c r="K22">
-        <v>14.27360397086866</v>
+        <v>12.44304943765273</v>
       </c>
       <c r="L22">
-        <v>7.723251285551151</v>
+        <v>11.63455126825711</v>
       </c>
       <c r="M22">
-        <v>12.89491802622657</v>
+        <v>16.95491406835347</v>
       </c>
       <c r="N22">
-        <v>13.74863463391645</v>
+        <v>22.42390172892</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.30621573482377</v>
+        <v>16.77512606837487</v>
       </c>
       <c r="C23">
-        <v>7.065718090984266</v>
+        <v>8.566924192010241</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.754400993189874</v>
+        <v>14.14617549602288</v>
       </c>
       <c r="F23">
-        <v>34.68387117530983</v>
+        <v>44.32016223808674</v>
       </c>
       <c r="G23">
-        <v>39.33587759258305</v>
+        <v>48.59113153230955</v>
       </c>
       <c r="H23">
-        <v>12.4261875374886</v>
+        <v>19.13103717832157</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.092489330179408</v>
+        <v>9.392883968347999</v>
       </c>
       <c r="K23">
-        <v>14.00555745670788</v>
+        <v>12.38656255554495</v>
       </c>
       <c r="L23">
-        <v>7.65912021313843</v>
+        <v>11.63150460550059</v>
       </c>
       <c r="M23">
-        <v>12.74245786384687</v>
+        <v>16.93801808763107</v>
       </c>
       <c r="N23">
-        <v>13.84295203365571</v>
+        <v>22.44828003975345</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04662964596347</v>
+        <v>16.47440670543576</v>
       </c>
       <c r="C24">
-        <v>6.873101757556912</v>
+        <v>8.513907863999552</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.587494238086485</v>
+        <v>14.15540037342318</v>
       </c>
       <c r="F24">
-        <v>33.48655991872445</v>
+        <v>44.25415734686361</v>
       </c>
       <c r="G24">
-        <v>38.17591772218645</v>
+        <v>48.5583277532068</v>
       </c>
       <c r="H24">
-        <v>12.37944252311726</v>
+        <v>19.18334168367403</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.126852859569947</v>
+        <v>9.398347201251793</v>
       </c>
       <c r="K24">
-        <v>12.95001288299029</v>
+        <v>12.17445619180105</v>
       </c>
       <c r="L24">
-        <v>7.417160413362807</v>
+        <v>11.62239411812442</v>
       </c>
       <c r="M24">
-        <v>12.15951215988412</v>
+        <v>16.87827074143202</v>
       </c>
       <c r="N24">
-        <v>14.20486068847477</v>
+        <v>22.54386062683027</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.61064874418596</v>
+        <v>16.15668362474057</v>
       </c>
       <c r="C25">
-        <v>6.661868921062259</v>
+        <v>8.454781159269558</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.416388525787763</v>
+        <v>14.17099789177411</v>
       </c>
       <c r="F25">
-        <v>32.25257641428865</v>
+        <v>44.21564146178108</v>
       </c>
       <c r="G25">
-        <v>37.04301450510633</v>
+        <v>48.56481713114655</v>
       </c>
       <c r="H25">
-        <v>12.36255113129029</v>
+        <v>19.2502719963341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.16438711514077</v>
+        <v>9.404721202618282</v>
       </c>
       <c r="K25">
-        <v>11.72323585270679</v>
+        <v>11.95068336207681</v>
       </c>
       <c r="L25">
-        <v>7.159110304249597</v>
+        <v>11.61780670047501</v>
       </c>
       <c r="M25">
-        <v>11.52145804677864</v>
+        <v>16.82308873411582</v>
       </c>
       <c r="N25">
-        <v>14.60591600546083</v>
+        <v>22.6539424719451</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.93002969492931</v>
+        <v>14.48978385986912</v>
       </c>
       <c r="C2">
-        <v>8.409604367810166</v>
+        <v>6.503197816030195</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.1873705680483</v>
+        <v>8.298381612700974</v>
       </c>
       <c r="F2">
-        <v>44.21552489145481</v>
+        <v>31.39572727769059</v>
       </c>
       <c r="G2">
-        <v>48.60556165666967</v>
+        <v>36.30689881457504</v>
       </c>
       <c r="H2">
-        <v>19.3085868293916</v>
+        <v>12.37629164565493</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.409833416744263</v>
+        <v>6.192624657046897</v>
       </c>
       <c r="K2">
-        <v>11.79130365214296</v>
+        <v>10.74211243666826</v>
       </c>
       <c r="L2">
-        <v>11.61897990344499</v>
+        <v>6.972649006977724</v>
       </c>
       <c r="M2">
-        <v>16.79059600469641</v>
+        <v>11.04668104415644</v>
       </c>
       <c r="N2">
-        <v>22.74105422421475</v>
+        <v>14.91111267457376</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.7817465609243</v>
+        <v>13.69295594526626</v>
       </c>
       <c r="C3">
-        <v>8.377977149994367</v>
+        <v>6.393675854171556</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.20153077677018</v>
+        <v>8.223522610033761</v>
       </c>
       <c r="F3">
-        <v>44.23310394848778</v>
+        <v>30.84842925764738</v>
       </c>
       <c r="G3">
-        <v>48.65555199953246</v>
+        <v>35.86694413511978</v>
       </c>
       <c r="H3">
-        <v>19.35373911895653</v>
+        <v>12.40064626912816</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.413562132509229</v>
+        <v>6.212225454115316</v>
       </c>
       <c r="K3">
-        <v>11.68717809337669</v>
+        <v>10.02772532540534</v>
       </c>
       <c r="L3">
-        <v>11.62263412457405</v>
+        <v>6.849038695470417</v>
       </c>
       <c r="M3">
-        <v>16.77372773054288</v>
+        <v>10.72361522330919</v>
       </c>
       <c r="N3">
-        <v>22.80389720399781</v>
+        <v>15.12448023886279</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.69357920611757</v>
+        <v>13.18651665696755</v>
       </c>
       <c r="C4">
-        <v>8.358064397364053</v>
+        <v>6.325451651589866</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.21174150322037</v>
+        <v>8.180123198930502</v>
       </c>
       <c r="F4">
-        <v>44.25261380361287</v>
+        <v>30.52919190429304</v>
       </c>
       <c r="G4">
-        <v>48.69725560778203</v>
+        <v>35.62498892275129</v>
       </c>
       <c r="H4">
-        <v>19.38423926403386</v>
+        <v>12.42260702800317</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.415982752121087</v>
+        <v>6.224515990291871</v>
       </c>
       <c r="K4">
-        <v>11.62533432285984</v>
+        <v>9.564418488872217</v>
       </c>
       <c r="L4">
-        <v>11.62629440247583</v>
+        <v>6.774690576118745</v>
       </c>
       <c r="M4">
-        <v>16.76593501181218</v>
+        <v>10.52529156793622</v>
       </c>
       <c r="N4">
-        <v>22.84436939749173</v>
+        <v>15.25882632413133</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.65841184789029</v>
+        <v>12.97603953721922</v>
       </c>
       <c r="C5">
-        <v>8.349826534837717</v>
+        <v>6.297406166409517</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.21628448326076</v>
+        <v>8.163088141230917</v>
       </c>
       <c r="F5">
-        <v>44.26275659832651</v>
+        <v>30.40336990334074</v>
       </c>
       <c r="G5">
-        <v>48.71701380451025</v>
+        <v>35.53333005767595</v>
       </c>
       <c r="H5">
-        <v>19.3973662533933</v>
+        <v>12.43325844976727</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.417002286430867</v>
+        <v>6.229592419256006</v>
       </c>
       <c r="K5">
-        <v>11.60068344252136</v>
+        <v>9.411647896187668</v>
       </c>
       <c r="L5">
-        <v>11.62814315930414</v>
+        <v>6.744811650142804</v>
       </c>
       <c r="M5">
-        <v>16.76340765192921</v>
+        <v>10.4445942351708</v>
       </c>
       <c r="N5">
-        <v>22.86133766276007</v>
+        <v>15.31442893007756</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.65261940052942</v>
+        <v>12.94084978987514</v>
       </c>
       <c r="C6">
-        <v>8.3484512243681</v>
+        <v>6.292734605968864</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.21706193599248</v>
+        <v>8.160298921930812</v>
       </c>
       <c r="F6">
-        <v>44.26457321526468</v>
+        <v>30.3827361993198</v>
       </c>
       <c r="G6">
-        <v>48.7204613952821</v>
+        <v>35.5185247107779</v>
       </c>
       <c r="H6">
-        <v>19.39958812618726</v>
+        <v>12.43512820344236</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.41717358296542</v>
+        <v>6.230439562811072</v>
       </c>
       <c r="K6">
-        <v>11.59662418336499</v>
+        <v>9.386130085862082</v>
       </c>
       <c r="L6">
-        <v>11.628471742157</v>
+        <v>6.739876394448157</v>
       </c>
       <c r="M6">
-        <v>16.76302722973331</v>
+        <v>10.43120518067583</v>
       </c>
       <c r="N6">
-        <v>22.86418398516883</v>
+        <v>15.32371383971347</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.69310179475469</v>
+        <v>13.18369435879781</v>
       </c>
       <c r="C7">
-        <v>8.357953796600066</v>
+        <v>6.325074403005789</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.21180122366939</v>
+        <v>8.179890817287589</v>
       </c>
       <c r="F7">
-        <v>44.25274171597516</v>
+        <v>30.52747768679096</v>
       </c>
       <c r="G7">
-        <v>48.6975108909964</v>
+        <v>35.62372488579009</v>
       </c>
       <c r="H7">
-        <v>19.38441347364265</v>
+        <v>12.42274386231617</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.415996367682649</v>
+        <v>6.224584173020085</v>
       </c>
       <c r="K7">
-        <v>11.62499960877324</v>
+        <v>9.562221682742035</v>
       </c>
       <c r="L7">
-        <v>11.62631788810685</v>
+        <v>6.774285885826012</v>
       </c>
       <c r="M7">
-        <v>16.76589829805916</v>
+        <v>10.52420261383277</v>
       </c>
       <c r="N7">
-        <v>22.84459631054526</v>
+        <v>15.25957271516859</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.87832709318426</v>
+        <v>14.21872354913262</v>
       </c>
       <c r="C8">
-        <v>8.398802233916827</v>
+        <v>6.465638441461443</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.19193875326102</v>
+        <v>8.272041735114954</v>
       </c>
       <c r="F8">
-        <v>44.21977770988585</v>
+        <v>31.20356031644176</v>
       </c>
       <c r="G8">
-        <v>48.62051078994874</v>
+        <v>36.14927150817468</v>
       </c>
       <c r="H8">
-        <v>19.32357895437734</v>
+        <v>12.38319844749921</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.411091929838911</v>
+        <v>6.199332250169201</v>
       </c>
       <c r="K8">
-        <v>11.75498302037837</v>
+        <v>10.50088974519448</v>
       </c>
       <c r="L8">
-        <v>11.61994646400655</v>
+        <v>6.929724135400273</v>
       </c>
       <c r="M8">
-        <v>16.78424969174372</v>
+        <v>10.93534436502118</v>
       </c>
       <c r="N8">
-        <v>22.76233168469425</v>
+        <v>14.98399897969462</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.26268236086304</v>
+        <v>16.10448395942976</v>
       </c>
       <c r="C9">
-        <v>8.474954982837053</v>
+        <v>6.733503666354239</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.16498656190574</v>
+        <v>8.47280618269307</v>
       </c>
       <c r="F9">
-        <v>44.22423587378297</v>
+        <v>32.6603666045679</v>
       </c>
       <c r="G9">
-        <v>48.55703896948171</v>
+        <v>37.40913977634538</v>
       </c>
       <c r="H9">
-        <v>19.22632256561009</v>
+        <v>12.36399979363144</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.40250937094468</v>
+        <v>6.151662809707871</v>
       </c>
       <c r="K9">
-        <v>12.02529673639212</v>
+        <v>12.14844388675026</v>
       </c>
       <c r="L9">
-        <v>11.61864790803392</v>
+        <v>7.245555680713645</v>
       </c>
       <c r="M9">
-        <v>16.84042362964857</v>
+        <v>11.73737990358811</v>
       </c>
       <c r="N9">
-        <v>22.61592358544795</v>
+        <v>14.46932955628909</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.55557922147655</v>
+        <v>17.39468708108874</v>
       </c>
       <c r="C10">
-        <v>8.528451676146089</v>
+        <v>6.925644385823586</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.15245367777285</v>
+        <v>8.632108205537177</v>
       </c>
       <c r="F10">
-        <v>44.26950887390417</v>
+        <v>33.80711461725454</v>
       </c>
       <c r="G10">
-        <v>48.56393620008741</v>
+        <v>38.48129107060533</v>
       </c>
       <c r="H10">
-        <v>19.16831755252309</v>
+        <v>12.38936375054801</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.396826743915192</v>
+        <v>6.117499029013658</v>
       </c>
       <c r="K10">
-        <v>12.231682333644</v>
+        <v>13.24335523436802</v>
       </c>
       <c r="L10">
-        <v>11.62445681195913</v>
+        <v>7.482647005016206</v>
       </c>
       <c r="M10">
-        <v>16.89376696692195</v>
+        <v>12.31858784716621</v>
       </c>
       <c r="N10">
-        <v>22.51737072336066</v>
+        <v>14.10582321291829</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.69059012315815</v>
+        <v>17.95999472432171</v>
       </c>
       <c r="C11">
-        <v>8.552246819643768</v>
+        <v>7.01209466670023</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.14832007060349</v>
+        <v>8.707041057234353</v>
       </c>
       <c r="F11">
-        <v>44.29917714554275</v>
+        <v>34.34463776081689</v>
       </c>
       <c r="G11">
-        <v>48.57871027101633</v>
+        <v>39.00204920041526</v>
       </c>
       <c r="H11">
-        <v>19.14485228824512</v>
+        <v>12.41034723306216</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.394375138322902</v>
+        <v>6.102078191133546</v>
       </c>
       <c r="K11">
-        <v>12.32690952715592</v>
+        <v>13.71701636940602</v>
       </c>
       <c r="L11">
-        <v>11.62855300708967</v>
+        <v>7.591269360900486</v>
       </c>
       <c r="M11">
-        <v>16.92059881133781</v>
+        <v>12.58027097366914</v>
       </c>
       <c r="N11">
-        <v>22.47447705398957</v>
+        <v>13.94339808452323</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.74192603970557</v>
+        <v>18.17090801457879</v>
       </c>
       <c r="C12">
-        <v>8.561178787286556</v>
+        <v>7.044700243515717</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.14697924350472</v>
+        <v>8.735761762230227</v>
       </c>
       <c r="F12">
-        <v>44.31171069514051</v>
+        <v>34.55040316461852</v>
       </c>
       <c r="G12">
-        <v>48.58597693010481</v>
+        <v>39.20408024597162</v>
       </c>
       <c r="H12">
-        <v>19.13638686508169</v>
+        <v>12.41972586431421</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.393465836304824</v>
+        <v>6.096250099434529</v>
       </c>
       <c r="K12">
-        <v>12.36313243006933</v>
+        <v>13.8929245026003</v>
       </c>
       <c r="L12">
-        <v>11.63031173269107</v>
+        <v>7.632486398866519</v>
       </c>
       <c r="M12">
-        <v>16.93112287315685</v>
+        <v>12.67890519628501</v>
       </c>
       <c r="N12">
-        <v>22.45851189406622</v>
+        <v>13.88229569444191</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.73086128774706</v>
+        <v>18.12562498819269</v>
       </c>
       <c r="C13">
-        <v>8.559258645600394</v>
+        <v>7.037683766787498</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.14725804638998</v>
+        <v>8.729561035522453</v>
       </c>
       <c r="F13">
-        <v>44.30895371077767</v>
+        <v>34.50599023976492</v>
       </c>
       <c r="G13">
-        <v>48.58433759461395</v>
+        <v>39.16035311731775</v>
       </c>
       <c r="H13">
-        <v>19.13819134600586</v>
+        <v>12.41764108312922</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.393660824656367</v>
+        <v>6.09750487335548</v>
       </c>
       <c r="K13">
-        <v>12.35532444047581</v>
+        <v>13.85519238842285</v>
       </c>
       <c r="L13">
-        <v>11.62992375137128</v>
+        <v>7.623606229904651</v>
       </c>
       <c r="M13">
-        <v>16.9288402561333</v>
+        <v>12.65768398937199</v>
       </c>
       <c r="N13">
-        <v>22.46193794027352</v>
+        <v>13.89543747750811</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.69480960074965</v>
+        <v>17.97741014767339</v>
       </c>
       <c r="C14">
-        <v>8.552983241581311</v>
+        <v>7.014779735200462</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.14820526662907</v>
+        <v>8.709397060169495</v>
       </c>
       <c r="F14">
-        <v>44.30018229548278</v>
+        <v>34.36152211210202</v>
       </c>
       <c r="G14">
-        <v>48.57927460514554</v>
+        <v>39.01857313809514</v>
       </c>
       <c r="H14">
-        <v>19.14414740676033</v>
+        <v>12.4110896724832</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.394299948049509</v>
+        <v>6.101598516645873</v>
       </c>
       <c r="K14">
-        <v>12.32988652624771</v>
+        <v>13.73155739787494</v>
       </c>
       <c r="L14">
-        <v>11.62869354683453</v>
+        <v>7.594658769663957</v>
       </c>
       <c r="M14">
-        <v>16.92145738145527</v>
+        <v>12.58839524255528</v>
       </c>
       <c r="N14">
-        <v>22.47315803007897</v>
+        <v>13.93836314832418</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.67275296207101</v>
+        <v>17.88621215063702</v>
       </c>
       <c r="C15">
-        <v>8.549129092645556</v>
+        <v>7.000733477813695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.14881467139408</v>
+        <v>8.697090732292455</v>
       </c>
       <c r="F15">
-        <v>44.29497850179546</v>
+        <v>34.27331816107643</v>
       </c>
       <c r="G15">
-        <v>48.57639106701509</v>
+        <v>38.93236032553665</v>
       </c>
       <c r="H15">
-        <v>19.14785041654865</v>
+        <v>12.40726556202813</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.39469390915734</v>
+        <v>6.104107298685657</v>
       </c>
       <c r="K15">
-        <v>12.3143253186917</v>
+        <v>13.65537885967047</v>
       </c>
       <c r="L15">
-        <v>11.62796700007381</v>
+        <v>7.576937819255056</v>
       </c>
       <c r="M15">
-        <v>16.91698231670127</v>
+        <v>12.54589214965151</v>
       </c>
       <c r="N15">
-        <v>22.48006679935344</v>
+        <v>13.96470851496862</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54678777476495</v>
+        <v>17.3573033332469</v>
       </c>
       <c r="C16">
-        <v>8.526885642561382</v>
+        <v>6.91997590574992</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.15275528417024</v>
+        <v>8.627259985628665</v>
       </c>
       <c r="F16">
-        <v>44.26775207914949</v>
+        <v>33.77229978995227</v>
       </c>
       <c r="G16">
-        <v>48.56320475609955</v>
+        <v>38.44793003531542</v>
       </c>
       <c r="H16">
-        <v>19.16990987346628</v>
+        <v>12.38818880711295</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.396989637009241</v>
+        <v>6.118508750043166</v>
       </c>
       <c r="K16">
-        <v>12.22548340152055</v>
+        <v>13.21191355742243</v>
       </c>
       <c r="L16">
-        <v>11.62421824580649</v>
+        <v>7.47556144006084</v>
       </c>
       <c r="M16">
-        <v>16.8920646069374</v>
+        <v>12.3014255012762</v>
       </c>
       <c r="N16">
-        <v>22.52021284640872</v>
+        <v>14.11649563735583</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.46993411811573</v>
+        <v>17.02725766632148</v>
       </c>
       <c r="C17">
-        <v>8.513100808720054</v>
+        <v>6.870192729817242</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.15557357927648</v>
+        <v>8.585045954932905</v>
       </c>
       <c r="F17">
-        <v>44.25336956908266</v>
+        <v>33.46895646934721</v>
       </c>
       <c r="G17">
-        <v>48.5580952656485</v>
+        <v>38.15926731041568</v>
       </c>
       <c r="H17">
-        <v>19.18419109612753</v>
+        <v>12.37895728250321</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.398432084375894</v>
+        <v>6.127370400467626</v>
       </c>
       <c r="K17">
-        <v>12.17130366423292</v>
+        <v>12.93364518815183</v>
       </c>
       <c r="L17">
-        <v>11.62228982694005</v>
+        <v>7.413547727895304</v>
       </c>
       <c r="M17">
-        <v>16.87743171419847</v>
+        <v>12.15070599603765</v>
       </c>
       <c r="N17">
-        <v>22.5453369207374</v>
+        <v>14.21035141638047</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.42589925098094</v>
+        <v>16.83539125989796</v>
       </c>
       <c r="C18">
-        <v>8.505121295380965</v>
+        <v>6.841468337345531</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.15734220377301</v>
+        <v>8.560998191811372</v>
       </c>
       <c r="F18">
-        <v>44.24595157601573</v>
+        <v>33.29597793366303</v>
       </c>
       <c r="G18">
-        <v>48.55625186008691</v>
+        <v>37.99634076627566</v>
       </c>
       <c r="H18">
-        <v>19.19268025075784</v>
+        <v>12.37453201029608</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.399274310144591</v>
+        <v>6.132479104343454</v>
       </c>
       <c r="K18">
-        <v>12.14026899668027</v>
+        <v>12.77129063584209</v>
       </c>
       <c r="L18">
-        <v>11.62131757289042</v>
+        <v>7.377952865771984</v>
       </c>
       <c r="M18">
-        <v>16.8692571081252</v>
+        <v>12.06376445811102</v>
       </c>
       <c r="N18">
-        <v>22.55997014632531</v>
+        <v>14.26461215657776</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.41102023666649</v>
+        <v>16.77008129648494</v>
       </c>
       <c r="C19">
-        <v>8.502410866873293</v>
+        <v>6.831727068093886</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.15796641089076</v>
+        <v>8.552896270733829</v>
       </c>
       <c r="F19">
-        <v>44.24358688660914</v>
+        <v>33.23766944936256</v>
       </c>
       <c r="G19">
-        <v>48.55581587507434</v>
+        <v>37.94170730018279</v>
       </c>
       <c r="H19">
-        <v>19.19560175123357</v>
+        <v>12.37318336248515</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.399561635651931</v>
+        <v>6.134211006824072</v>
       </c>
       <c r="K19">
-        <v>12.12978411730199</v>
+        <v>12.7159232096536</v>
       </c>
       <c r="L19">
-        <v>11.62101194359121</v>
+        <v>7.365914564959948</v>
       </c>
       <c r="M19">
-        <v>16.86653102707566</v>
+        <v>12.034286608933</v>
       </c>
       <c r="N19">
-        <v>22.56495608470535</v>
+        <v>14.28303209159025</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.47809811856094</v>
+        <v>17.06260240828606</v>
       </c>
       <c r="C20">
-        <v>8.514573496789756</v>
+        <v>6.875501554957967</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.15525829600778</v>
+        <v>8.589515701670216</v>
       </c>
       <c r="F20">
-        <v>44.25481221943973</v>
+        <v>33.50109348299631</v>
       </c>
       <c r="G20">
-        <v>48.55852581098081</v>
+        <v>38.18967403028819</v>
       </c>
       <c r="H20">
-        <v>19.18264237493664</v>
+        <v>12.37984792387523</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.39827723351218</v>
+        <v>6.126425890919295</v>
       </c>
       <c r="K20">
-        <v>12.17705815401589</v>
+        <v>12.96350519026749</v>
       </c>
       <c r="L20">
-        <v>11.62248094981106</v>
+        <v>7.420141754271785</v>
       </c>
       <c r="M20">
-        <v>16.87896441929094</v>
+        <v>12.16677692722891</v>
       </c>
       <c r="N20">
-        <v>22.54264353711963</v>
+        <v>14.2003317293625</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70539350316381</v>
+        <v>18.02103038234554</v>
       </c>
       <c r="C21">
-        <v>8.554828624520978</v>
+        <v>7.021510707571413</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.14792096054338</v>
+        <v>8.715310411684953</v>
       </c>
       <c r="F21">
-        <v>44.30272347544162</v>
+        <v>34.40389620697085</v>
       </c>
       <c r="G21">
-        <v>48.58071636573998</v>
+        <v>39.06008560642032</v>
       </c>
       <c r="H21">
-        <v>19.14238655696159</v>
+        <v>12.41297449532882</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.394111705491879</v>
+        <v>6.100395853163437</v>
       </c>
       <c r="K21">
-        <v>12.33735409263943</v>
+        <v>13.76796536409345</v>
       </c>
       <c r="L21">
-        <v>11.62904926595899</v>
+        <v>7.603159257951302</v>
       </c>
       <c r="M21">
-        <v>16.92361609309622</v>
+        <v>12.6087600026708</v>
       </c>
       <c r="N21">
-        <v>22.46985488790882</v>
+        <v>13.92574400075738</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.85514902260531</v>
+        <v>18.62901280606483</v>
       </c>
       <c r="C22">
-        <v>8.580678287563556</v>
+        <v>7.116175412511495</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.14443355721742</v>
+        <v>8.799532793426296</v>
       </c>
       <c r="F22">
-        <v>44.34160329488854</v>
+        <v>35.0068287075313</v>
       </c>
       <c r="G22">
-        <v>48.60496359872558</v>
+        <v>39.65714603950283</v>
       </c>
       <c r="H22">
-        <v>19.11852734247334</v>
+        <v>12.44301124801586</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.391500377604315</v>
+        <v>6.083447318730635</v>
       </c>
       <c r="K22">
-        <v>12.44304943765273</v>
+        <v>14.27360397086866</v>
       </c>
       <c r="L22">
-        <v>11.63455126825711</v>
+        <v>7.723251285551163</v>
       </c>
       <c r="M22">
-        <v>16.95491406835347</v>
+        <v>12.8949180262266</v>
       </c>
       <c r="N22">
-        <v>22.42390172892</v>
+        <v>13.74863463391648</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.77512606837487</v>
+        <v>18.30621573482377</v>
       </c>
       <c r="C23">
-        <v>8.566924192010241</v>
+        <v>7.06571809098416</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.14617549602288</v>
+        <v>8.754400993189867</v>
       </c>
       <c r="F23">
-        <v>44.32016223808674</v>
+        <v>34.68387117530978</v>
       </c>
       <c r="G23">
-        <v>48.59113153230955</v>
+        <v>39.33587759258296</v>
       </c>
       <c r="H23">
-        <v>19.13103717832157</v>
+        <v>12.42618753748858</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.392883968347999</v>
+        <v>6.092489330179443</v>
       </c>
       <c r="K23">
-        <v>12.38656255554495</v>
+        <v>14.00555745670789</v>
       </c>
       <c r="L23">
-        <v>11.63150460550059</v>
+        <v>7.659120213138455</v>
       </c>
       <c r="M23">
-        <v>16.93801808763107</v>
+        <v>12.74245786384687</v>
       </c>
       <c r="N23">
-        <v>22.44828003975345</v>
+        <v>13.8429520336557</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.47440670543576</v>
+        <v>17.04662964596347</v>
       </c>
       <c r="C24">
-        <v>8.513907863999552</v>
+        <v>6.873101757557166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.15540037342318</v>
+        <v>8.587494238086496</v>
       </c>
       <c r="F24">
-        <v>44.25415734686361</v>
+        <v>33.48655991872444</v>
       </c>
       <c r="G24">
-        <v>48.5583277532068</v>
+        <v>38.17591772218639</v>
       </c>
       <c r="H24">
-        <v>19.18334168367403</v>
+        <v>12.37944252311722</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.398347201251793</v>
+        <v>6.126852859569882</v>
       </c>
       <c r="K24">
-        <v>12.17445619180105</v>
+        <v>12.95001288299029</v>
       </c>
       <c r="L24">
-        <v>11.62239411812442</v>
+        <v>7.417160413362778</v>
       </c>
       <c r="M24">
-        <v>16.87827074143202</v>
+        <v>12.15951215988413</v>
       </c>
       <c r="N24">
-        <v>22.54386062683027</v>
+        <v>14.2048606884747</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.15668362474057</v>
+        <v>15.61064874418594</v>
       </c>
       <c r="C25">
-        <v>8.454781159269558</v>
+        <v>6.661868921062138</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.17099789177411</v>
+        <v>8.416388525787717</v>
       </c>
       <c r="F25">
-        <v>44.21564146178108</v>
+        <v>32.2525764142887</v>
       </c>
       <c r="G25">
-        <v>48.56481713114655</v>
+        <v>37.04301450510631</v>
       </c>
       <c r="H25">
-        <v>19.2502719963341</v>
+        <v>12.36255113129034</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.404721202618282</v>
+        <v>6.164387115140704</v>
       </c>
       <c r="K25">
-        <v>11.95068336207681</v>
+        <v>11.72323585270676</v>
       </c>
       <c r="L25">
-        <v>11.61780670047501</v>
+        <v>7.15911030424955</v>
       </c>
       <c r="M25">
-        <v>16.82308873411582</v>
+        <v>11.52145804677864</v>
       </c>
       <c r="N25">
-        <v>22.6539424719451</v>
+        <v>14.60591600546086</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48978385986912</v>
+        <v>13.7300418448912</v>
       </c>
       <c r="C2">
-        <v>6.503197816030195</v>
+        <v>6.386000826140956</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.298381612700974</v>
+        <v>7.514266986268639</v>
       </c>
       <c r="F2">
-        <v>31.39572727769059</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>36.30689881457504</v>
+        <v>32.31125369912027</v>
       </c>
       <c r="H2">
-        <v>12.37629164565493</v>
+        <v>3.102904730136928</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.074372919807479</v>
       </c>
       <c r="J2">
-        <v>6.192624657046897</v>
+        <v>11.59887527887763</v>
       </c>
       <c r="K2">
-        <v>10.74211243666826</v>
+        <v>18.97110318072051</v>
       </c>
       <c r="L2">
-        <v>6.972649006977724</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.04668104415644</v>
+        <v>11.21727879896431</v>
       </c>
       <c r="N2">
-        <v>14.91111267457376</v>
+        <v>7.004855017724843</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69295594526626</v>
+        <v>12.85976753227625</v>
       </c>
       <c r="C3">
-        <v>6.393675854171556</v>
+        <v>6.097732372655086</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.223522610033761</v>
+        <v>7.216338008255592</v>
       </c>
       <c r="F3">
-        <v>30.84842925764738</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>35.86694413511978</v>
+        <v>31.94298045863581</v>
       </c>
       <c r="H3">
-        <v>12.40064626912816</v>
+        <v>3.311332642202482</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.247291183325074</v>
       </c>
       <c r="J3">
-        <v>6.212225454115316</v>
+        <v>11.61030884429463</v>
       </c>
       <c r="K3">
-        <v>10.02772532540534</v>
+        <v>18.96276558753604</v>
       </c>
       <c r="L3">
-        <v>6.849038695470417</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.72361522330919</v>
+        <v>10.54968361819762</v>
       </c>
       <c r="N3">
-        <v>15.12448023886279</v>
+        <v>6.711151767014647</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18651665696755</v>
+        <v>12.29445212692368</v>
       </c>
       <c r="C4">
-        <v>6.325451651589866</v>
+        <v>5.915676932634165</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.180123198930502</v>
+        <v>7.025659725613314</v>
       </c>
       <c r="F4">
-        <v>30.52919190429304</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>35.62498892275129</v>
+        <v>31.71917012339505</v>
       </c>
       <c r="H4">
-        <v>12.42260702800317</v>
+        <v>3.443862280171</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.357740489321175</v>
       </c>
       <c r="J4">
-        <v>6.224515990291871</v>
+        <v>11.61892865593769</v>
       </c>
       <c r="K4">
-        <v>9.564418488872217</v>
+        <v>18.95854046854937</v>
       </c>
       <c r="L4">
-        <v>6.774690576118745</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.52529156793622</v>
+        <v>10.11777259238731</v>
       </c>
       <c r="N4">
-        <v>15.25882632413133</v>
+        <v>6.524341102226154</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97603953721922</v>
+        <v>12.05459291095684</v>
       </c>
       <c r="C5">
-        <v>6.297406166409517</v>
+        <v>5.844594557051332</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.163088141230917</v>
+        <v>6.943624683023438</v>
       </c>
       <c r="F5">
-        <v>30.40336990334074</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>35.53333005767595</v>
+        <v>31.59568785832961</v>
       </c>
       <c r="H5">
-        <v>12.43325844976727</v>
+        <v>3.499449344360394</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.406297632027231</v>
       </c>
       <c r="J5">
-        <v>6.229592419256006</v>
+        <v>11.61686870051728</v>
       </c>
       <c r="K5">
-        <v>9.411647896187668</v>
+        <v>18.94420313450094</v>
       </c>
       <c r="L5">
-        <v>6.744811650142804</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.4445942351708</v>
+        <v>9.937607493378277</v>
       </c>
       <c r="N5">
-        <v>15.31442893007756</v>
+        <v>6.447055740961964</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.94084978987514</v>
+        <v>12.0121663144426</v>
       </c>
       <c r="C6">
-        <v>6.292734605968864</v>
+        <v>5.838078527864018</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.160298921930812</v>
+        <v>6.92691550087152</v>
       </c>
       <c r="F6">
-        <v>30.3827361993198</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>35.5185247107779</v>
+        <v>31.53506373944457</v>
       </c>
       <c r="H6">
-        <v>12.43512820344236</v>
+        <v>3.509259322795371</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.417558556392394</v>
       </c>
       <c r="J6">
-        <v>6.230439562811072</v>
+        <v>11.60927014717729</v>
       </c>
       <c r="K6">
-        <v>9.386130085862082</v>
+        <v>18.92617843940646</v>
       </c>
       <c r="L6">
-        <v>6.739876394448157</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.43120518067583</v>
+        <v>9.908998652173025</v>
       </c>
       <c r="N6">
-        <v>15.32371383971347</v>
+        <v>6.434622234301947</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18369435879781</v>
+        <v>12.28554579081891</v>
       </c>
       <c r="C7">
-        <v>6.325074403005789</v>
+        <v>5.929157096242166</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.179890817287589</v>
+        <v>7.016560893641248</v>
       </c>
       <c r="F7">
-        <v>30.52747768679096</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>35.62372488579009</v>
+        <v>31.6083297414456</v>
       </c>
       <c r="H7">
-        <v>12.42274386231617</v>
+        <v>3.445974107990093</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.366687102600364</v>
       </c>
       <c r="J7">
-        <v>6.224584173020085</v>
+        <v>11.59906985607296</v>
       </c>
       <c r="K7">
-        <v>9.562221682742035</v>
+        <v>18.9156796146956</v>
       </c>
       <c r="L7">
-        <v>6.774285885826012</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.52420261383277</v>
+        <v>10.11975053152794</v>
       </c>
       <c r="N7">
-        <v>15.25957271516859</v>
+        <v>6.524636096199127</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21872354913262</v>
+        <v>13.42937451349402</v>
       </c>
       <c r="C8">
-        <v>6.465638441461443</v>
+        <v>6.305877689169486</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.272041735114954</v>
+        <v>7.403135178060759</v>
       </c>
       <c r="F8">
-        <v>31.20356031644176</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>36.14927150817468</v>
+        <v>32.04208173754592</v>
       </c>
       <c r="H8">
-        <v>12.38319844749921</v>
+        <v>3.17554245129718</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.143634226383321</v>
       </c>
       <c r="J8">
-        <v>6.199332250169201</v>
+        <v>11.57652305412589</v>
       </c>
       <c r="K8">
-        <v>10.50088974519448</v>
+        <v>18.91216451157726</v>
       </c>
       <c r="L8">
-        <v>6.929724135400273</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.93534436502118</v>
+        <v>10.9971023924357</v>
       </c>
       <c r="N8">
-        <v>14.98399897969462</v>
+        <v>6.9066751831989</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.10448395942976</v>
+        <v>15.46424732319318</v>
       </c>
       <c r="C9">
-        <v>6.733503666354239</v>
+        <v>6.980146508115684</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.47280618269307</v>
+        <v>8.111258814216949</v>
       </c>
       <c r="F9">
-        <v>32.6603666045679</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>37.40913977634538</v>
+        <v>33.10124271086276</v>
       </c>
       <c r="H9">
-        <v>12.36399979363144</v>
+        <v>2.678286072860347</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.725947708547176</v>
       </c>
       <c r="J9">
-        <v>6.151662809707871</v>
+        <v>11.58065408095581</v>
       </c>
       <c r="K9">
-        <v>12.14844388675026</v>
+        <v>18.98836401848889</v>
       </c>
       <c r="L9">
-        <v>7.245555680713645</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.73737990358811</v>
+        <v>12.53489113401271</v>
       </c>
       <c r="N9">
-        <v>14.46932955628909</v>
+        <v>7.599655860050149</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39468708108874</v>
+        <v>16.80942059155111</v>
       </c>
       <c r="C10">
-        <v>6.925644385823586</v>
+        <v>7.494499397715447</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.632108205537177</v>
+        <v>8.419129849697651</v>
       </c>
       <c r="F10">
-        <v>33.80711461725454</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>38.48129107060533</v>
+        <v>33.35126310330857</v>
       </c>
       <c r="H10">
-        <v>12.38936375054801</v>
+        <v>2.364958550299414</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.450785483119994</v>
       </c>
       <c r="J10">
-        <v>6.117499029013658</v>
+        <v>11.4914575205988</v>
       </c>
       <c r="K10">
-        <v>13.24335523436802</v>
+        <v>18.83894265902127</v>
       </c>
       <c r="L10">
-        <v>7.482647005016206</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.31858784716621</v>
+        <v>13.56836257400135</v>
       </c>
       <c r="N10">
-        <v>14.10582321291829</v>
+        <v>7.938040232078121</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.95999472432171</v>
+        <v>17.24166132780872</v>
       </c>
       <c r="C11">
-        <v>7.01209466670023</v>
+        <v>8.087219695866654</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.707041057234353</v>
+        <v>7.202534387639514</v>
       </c>
       <c r="F11">
-        <v>34.34463776081689</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>39.00204920041526</v>
+        <v>29.18939260245858</v>
       </c>
       <c r="H11">
-        <v>12.41034723306216</v>
+        <v>3.196576307516386</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.402418914846915</v>
       </c>
       <c r="J11">
-        <v>6.102078191133546</v>
+        <v>10.66176262464538</v>
       </c>
       <c r="K11">
-        <v>13.71701636940602</v>
+        <v>17.15398343248085</v>
       </c>
       <c r="L11">
-        <v>7.591269360900486</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.58027097366914</v>
+        <v>14.10457197604178</v>
       </c>
       <c r="N11">
-        <v>13.94339808452323</v>
+        <v>6.947264084810459</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.17090801457879</v>
+        <v>17.34159391477877</v>
       </c>
       <c r="C12">
-        <v>7.044700243515717</v>
+        <v>8.491122073905151</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.735761762230227</v>
+        <v>6.318316823848066</v>
       </c>
       <c r="F12">
-        <v>34.55040316461852</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>39.20408024597162</v>
+        <v>25.9039904604068</v>
       </c>
       <c r="H12">
-        <v>12.41972586431421</v>
+        <v>4.4619601524226</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.396511116780927</v>
       </c>
       <c r="J12">
-        <v>6.096250099434529</v>
+        <v>10.05527368625608</v>
       </c>
       <c r="K12">
-        <v>13.8929245026003</v>
+        <v>15.96469769886893</v>
       </c>
       <c r="L12">
-        <v>7.632486398866519</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.67890519628501</v>
+        <v>14.3455316424974</v>
       </c>
       <c r="N12">
-        <v>13.88229569444191</v>
+        <v>6.07804846952352</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.12562498819269</v>
+        <v>17.18821614525516</v>
       </c>
       <c r="C13">
-        <v>7.037683766787498</v>
+        <v>8.798156599773129</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.729561035522453</v>
+        <v>5.699778032263745</v>
       </c>
       <c r="F13">
-        <v>34.50599023976492</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>39.16035311731775</v>
+        <v>22.99807164938533</v>
       </c>
       <c r="H13">
-        <v>12.41764108312922</v>
+        <v>5.825704395089906</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.436973917139398</v>
       </c>
       <c r="J13">
-        <v>6.09750487335548</v>
+        <v>9.565238947566892</v>
       </c>
       <c r="K13">
-        <v>13.85519238842285</v>
+        <v>15.05849881280105</v>
       </c>
       <c r="L13">
-        <v>7.623606229904651</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.65768398937199</v>
+        <v>14.38632963049139</v>
       </c>
       <c r="N13">
-        <v>13.89543747750811</v>
+        <v>5.258805745581121</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.97741014767339</v>
+        <v>16.96283921730028</v>
       </c>
       <c r="C14">
-        <v>7.014779735200462</v>
+        <v>8.979248880658369</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.709397060169495</v>
+        <v>5.476685931309778</v>
       </c>
       <c r="F14">
-        <v>34.36152211210202</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>39.01857313809514</v>
+        <v>21.22323769158338</v>
       </c>
       <c r="H14">
-        <v>12.4110896724832</v>
+        <v>6.80838655138693</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.488422362224305</v>
       </c>
       <c r="J14">
-        <v>6.101598516645873</v>
+        <v>9.288010105629132</v>
       </c>
       <c r="K14">
-        <v>13.73155739787494</v>
+        <v>14.59518599183469</v>
       </c>
       <c r="L14">
-        <v>7.594658769663957</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.58839524255528</v>
+        <v>14.32636477503411</v>
       </c>
       <c r="N14">
-        <v>13.93836314832418</v>
+        <v>4.735239408765235</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.88621215063702</v>
+        <v>16.85073550284111</v>
       </c>
       <c r="C15">
-        <v>7.000733477813695</v>
+        <v>9.006427629862216</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.697090732292455</v>
+        <v>5.449711945054438</v>
       </c>
       <c r="F15">
-        <v>34.27331816107643</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>38.93236032553665</v>
+        <v>20.8438891228911</v>
       </c>
       <c r="H15">
-        <v>12.40726556202813</v>
+        <v>7.039844140930514</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.515718319078559</v>
       </c>
       <c r="J15">
-        <v>6.104107298685657</v>
+        <v>9.236092393257637</v>
       </c>
       <c r="K15">
-        <v>13.65537885967047</v>
+        <v>14.51921476561771</v>
       </c>
       <c r="L15">
-        <v>7.576937819255056</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.54589214965151</v>
+        <v>14.26968195842892</v>
       </c>
       <c r="N15">
-        <v>13.96470851496862</v>
+        <v>4.615117496621317</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.3573033332469</v>
+        <v>16.31883699368595</v>
       </c>
       <c r="C16">
-        <v>6.91997590574992</v>
+        <v>8.758654849856413</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.627259985628665</v>
+        <v>5.400447701476327</v>
       </c>
       <c r="F16">
-        <v>33.77229978995227</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>38.44793003531542</v>
+        <v>21.28788004969007</v>
       </c>
       <c r="H16">
-        <v>12.38818880711295</v>
+        <v>6.863641193977934</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.630801135164328</v>
       </c>
       <c r="J16">
-        <v>6.118508750043166</v>
+        <v>9.370691247907317</v>
       </c>
       <c r="K16">
-        <v>13.21191355742243</v>
+        <v>14.7619249652206</v>
       </c>
       <c r="L16">
-        <v>7.47556144006084</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.3014255012762</v>
+        <v>13.84503001797937</v>
       </c>
       <c r="N16">
-        <v>14.11649563735583</v>
+        <v>4.601076856419708</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02725766632148</v>
+        <v>16.02725954049453</v>
       </c>
       <c r="C17">
-        <v>6.870192729817242</v>
+        <v>8.462726757487024</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.585045954932905</v>
+        <v>5.440502873129422</v>
       </c>
       <c r="F17">
-        <v>33.46895646934721</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>38.15926731041568</v>
+        <v>22.49787955767071</v>
       </c>
       <c r="H17">
-        <v>12.37895728250321</v>
+        <v>6.180595181733104</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.692666114272031</v>
       </c>
       <c r="J17">
-        <v>6.127370400467626</v>
+        <v>9.610385585811608</v>
       </c>
       <c r="K17">
-        <v>12.93364518815183</v>
+        <v>15.1643163303931</v>
       </c>
       <c r="L17">
-        <v>7.413547727895304</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.15070599603765</v>
+        <v>13.54539397045571</v>
       </c>
       <c r="N17">
-        <v>14.21035141638047</v>
+        <v>4.859173550502119</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83539125989796</v>
+        <v>15.92255224787131</v>
       </c>
       <c r="C18">
-        <v>6.841468337345531</v>
+        <v>8.089760004578912</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.560998191811372</v>
+        <v>5.778172407387933</v>
       </c>
       <c r="F18">
-        <v>33.29597793366303</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>37.99634076627566</v>
+        <v>24.76921254092975</v>
       </c>
       <c r="H18">
-        <v>12.37453201029608</v>
+        <v>5.025693650943135</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.70300753103657</v>
       </c>
       <c r="J18">
-        <v>6.132479104343454</v>
+        <v>10.01602609033196</v>
       </c>
       <c r="K18">
-        <v>12.77129063584209</v>
+        <v>15.88378441846007</v>
       </c>
       <c r="L18">
-        <v>7.377952865771984</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.06376445811102</v>
+        <v>13.32329536110405</v>
       </c>
       <c r="N18">
-        <v>14.26461215657776</v>
+        <v>5.447888539495203</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.77008129648494</v>
+        <v>15.96949010378392</v>
       </c>
       <c r="C19">
-        <v>6.831727068093886</v>
+        <v>7.733672591249165</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.552896270733829</v>
+        <v>6.572563048584357</v>
       </c>
       <c r="F19">
-        <v>33.23766944936256</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>37.94170730018279</v>
+        <v>27.81858315081945</v>
       </c>
       <c r="H19">
-        <v>12.37318336248515</v>
+        <v>3.712379998988402</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.682968421919758</v>
       </c>
       <c r="J19">
-        <v>6.134211006824072</v>
+        <v>10.5521151242532</v>
       </c>
       <c r="K19">
-        <v>12.7159232096536</v>
+        <v>16.90961957930458</v>
       </c>
       <c r="L19">
-        <v>7.365914564959948</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.034286608933</v>
+        <v>13.19270978158674</v>
       </c>
       <c r="N19">
-        <v>14.28303209159025</v>
+        <v>6.323567375143139</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06260240828606</v>
+        <v>16.45113516332791</v>
       </c>
       <c r="C20">
-        <v>6.875501554957967</v>
+        <v>7.401702919509072</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.589515701670216</v>
+        <v>8.311628553229591</v>
       </c>
       <c r="F20">
-        <v>33.50109348299631</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>38.18967403028819</v>
+        <v>32.94883555989188</v>
       </c>
       <c r="H20">
-        <v>12.37984792387523</v>
+        <v>2.449320751504711</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.54962310786489</v>
       </c>
       <c r="J20">
-        <v>6.126425890919295</v>
+        <v>11.45126284981497</v>
       </c>
       <c r="K20">
-        <v>12.96350519026749</v>
+        <v>18.74291666583288</v>
       </c>
       <c r="L20">
-        <v>7.420141754271785</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.16677692722891</v>
+        <v>13.31569983505402</v>
       </c>
       <c r="N20">
-        <v>14.2003317293625</v>
+        <v>7.84829030539578</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.02103038234554</v>
+        <v>17.4616015931992</v>
       </c>
       <c r="C21">
-        <v>7.021510707571413</v>
+        <v>7.720593462757128</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.715310411684953</v>
+        <v>8.802492586990816</v>
       </c>
       <c r="F21">
-        <v>34.40389620697085</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>39.06008560642032</v>
+        <v>33.97542725092885</v>
       </c>
       <c r="H21">
-        <v>12.41297449532882</v>
+        <v>2.167380614683712</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.328077490524288</v>
       </c>
       <c r="J21">
-        <v>6.100395853163437</v>
+        <v>11.54135028091119</v>
       </c>
       <c r="K21">
-        <v>13.76796536409345</v>
+        <v>18.9537167102093</v>
       </c>
       <c r="L21">
-        <v>7.603159257951302</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.6087600026708</v>
+        <v>14.05699807345752</v>
       </c>
       <c r="N21">
-        <v>13.92574400075738</v>
+        <v>8.306426105623467</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.62901280606483</v>
+        <v>18.09019820156497</v>
       </c>
       <c r="C22">
-        <v>7.116175412511495</v>
+        <v>7.929445824859241</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.799532793426296</v>
+        <v>9.0367444039818</v>
       </c>
       <c r="F22">
-        <v>35.0068287075313</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>39.65714603950283</v>
+        <v>34.52391621051298</v>
       </c>
       <c r="H22">
-        <v>12.44301124801586</v>
+        <v>1.999981332137083</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.178803492620824</v>
       </c>
       <c r="J22">
-        <v>6.083447318730635</v>
+        <v>11.57977642514564</v>
       </c>
       <c r="K22">
-        <v>14.27360397086866</v>
+        <v>19.04815285244817</v>
       </c>
       <c r="L22">
-        <v>7.723251285551163</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.8949180262266</v>
+        <v>14.52282467183057</v>
       </c>
       <c r="N22">
-        <v>13.74863463391648</v>
+        <v>8.527364284976672</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.30621573482377</v>
+        <v>17.76273861570803</v>
       </c>
       <c r="C23">
-        <v>7.06571809098416</v>
+        <v>7.804535527125232</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.754400993189867</v>
+        <v>8.919925108980362</v>
       </c>
       <c r="F23">
-        <v>34.68387117530978</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>39.33587759258296</v>
+        <v>34.34679397813489</v>
       </c>
       <c r="H23">
-        <v>12.42618753748858</v>
+        <v>2.087753403279071</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.247240725971669</v>
       </c>
       <c r="J23">
-        <v>6.092489330179443</v>
+        <v>11.58127316936008</v>
       </c>
       <c r="K23">
-        <v>14.00555745670789</v>
+        <v>19.04528265170923</v>
       </c>
       <c r="L23">
-        <v>7.659120213138455</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.74245786384687</v>
+        <v>14.27209627956312</v>
       </c>
       <c r="N23">
-        <v>13.8429520336557</v>
+        <v>8.408756412898951</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04662964596347</v>
+        <v>16.45599027644368</v>
       </c>
       <c r="C24">
-        <v>6.873101757557166</v>
+        <v>7.343861328553832</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.587494238086496</v>
+        <v>8.450742035772734</v>
       </c>
       <c r="F24">
-        <v>33.48655991872444</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>38.17591772218639</v>
+        <v>33.50273733409816</v>
       </c>
       <c r="H24">
-        <v>12.37944252311722</v>
+        <v>2.42875130605707</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.530642984964349</v>
       </c>
       <c r="J24">
-        <v>6.126852859569882</v>
+        <v>11.55683248104217</v>
       </c>
       <c r="K24">
-        <v>12.95001288299029</v>
+        <v>18.96393566368645</v>
       </c>
       <c r="L24">
-        <v>7.417160413362778</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.15951215988413</v>
+        <v>13.28927539557839</v>
       </c>
       <c r="N24">
-        <v>14.2048606884747</v>
+        <v>7.947468677104016</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.61064874418594</v>
+        <v>14.92116872744583</v>
       </c>
       <c r="C25">
-        <v>6.661868921062138</v>
+        <v>6.825460173488835</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.416388525787717</v>
+        <v>7.913907585310612</v>
       </c>
       <c r="F25">
-        <v>32.2525764142887</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>37.04301450510631</v>
+        <v>32.62520095109551</v>
       </c>
       <c r="H25">
-        <v>12.36255113129034</v>
+        <v>2.811307193152115</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.850416847421481</v>
       </c>
       <c r="J25">
-        <v>6.164387115140704</v>
+        <v>11.54313434362587</v>
       </c>
       <c r="K25">
-        <v>11.72323585270676</v>
+        <v>18.89180642327056</v>
       </c>
       <c r="L25">
-        <v>7.15911030424955</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.52145804677864</v>
+        <v>12.14454341822711</v>
       </c>
       <c r="N25">
-        <v>14.60591600546086</v>
+        <v>7.420500006373748</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_24/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.7300418448912</v>
+        <v>13.67698231382894</v>
       </c>
       <c r="C2">
-        <v>6.386000826140956</v>
+        <v>6.364848646092007</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.514266986268639</v>
+        <v>7.399235544797277</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>32.31125369912027</v>
+        <v>28.9777758308109</v>
       </c>
       <c r="H2">
-        <v>3.102904730136928</v>
+        <v>2.882931530352638</v>
       </c>
       <c r="I2">
-        <v>4.074372919807479</v>
+        <v>3.810302844961156</v>
       </c>
       <c r="J2">
-        <v>11.59887527887763</v>
+        <v>11.0039311860953</v>
       </c>
       <c r="K2">
-        <v>18.97110318072051</v>
+        <v>17.45886435568621</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.68771151280983</v>
       </c>
       <c r="M2">
-        <v>11.21727879896431</v>
+        <v>12.12597990854898</v>
       </c>
       <c r="N2">
-        <v>7.004855017724843</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.38773640594035</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.172937188081878</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85976753227625</v>
+        <v>12.79420816126088</v>
       </c>
       <c r="C3">
-        <v>6.097732372655086</v>
+        <v>6.009222712425673</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.216338008255592</v>
+        <v>7.133659744580832</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>31.94298045863581</v>
+        <v>28.98027136552945</v>
       </c>
       <c r="H3">
-        <v>3.311332642202482</v>
+        <v>3.072297477752286</v>
       </c>
       <c r="I3">
-        <v>4.247291183325074</v>
+        <v>3.960188428760963</v>
       </c>
       <c r="J3">
-        <v>11.61030884429463</v>
+        <v>11.02536586540146</v>
       </c>
       <c r="K3">
-        <v>18.96276558753604</v>
+        <v>17.56231028417061</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.83022501643493</v>
       </c>
       <c r="M3">
-        <v>10.54968361819762</v>
+        <v>12.17396476763709</v>
       </c>
       <c r="N3">
-        <v>6.711151767014647</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.7143854017667</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.886807080392892</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.29445212692368</v>
+        <v>12.21864436539332</v>
       </c>
       <c r="C4">
-        <v>5.915676932634165</v>
+        <v>5.783651055728703</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.025659725613314</v>
+        <v>6.963853476291915</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.71917012339505</v>
+        <v>28.98861875141356</v>
       </c>
       <c r="H4">
-        <v>3.443862280171</v>
+        <v>3.192785710108084</v>
       </c>
       <c r="I4">
-        <v>4.357740489321175</v>
+        <v>4.056244063076871</v>
       </c>
       <c r="J4">
-        <v>11.61892865593769</v>
+        <v>11.0383882453038</v>
       </c>
       <c r="K4">
-        <v>18.95854046854937</v>
+        <v>17.6262586745961</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.91679884022592</v>
       </c>
       <c r="M4">
-        <v>10.11777259238731</v>
+        <v>12.21735726360891</v>
       </c>
       <c r="N4">
-        <v>6.524341102226154</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.27887406051493</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.705258592206036</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.05459291095684</v>
+        <v>11.97394506506134</v>
       </c>
       <c r="C5">
-        <v>5.844594557051332</v>
+        <v>5.694693911341179</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.943624683023438</v>
+        <v>6.890923737937141</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.59568785832961</v>
+        <v>28.96613664368825</v>
       </c>
       <c r="H5">
-        <v>3.499449344360394</v>
+        <v>3.243340264562172</v>
       </c>
       <c r="I5">
-        <v>4.406297632027231</v>
+        <v>4.099250554088417</v>
       </c>
       <c r="J5">
-        <v>11.61686870051728</v>
+        <v>11.03859356901419</v>
       </c>
       <c r="K5">
-        <v>18.94420313450094</v>
+        <v>17.6420408182936</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.94219969743482</v>
       </c>
       <c r="M5">
-        <v>9.937607493378277</v>
+        <v>12.23246246167842</v>
       </c>
       <c r="N5">
-        <v>6.447055740961964</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.0970723014054</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.630203762454874</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.0121663144426</v>
+        <v>11.9307257185134</v>
       </c>
       <c r="C6">
-        <v>5.838078527864018</v>
+        <v>5.68563228081379</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.92691550087152</v>
+        <v>6.876172631340456</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.53506373944457</v>
+        <v>28.92897965700941</v>
       </c>
       <c r="H6">
-        <v>3.509259322795371</v>
+        <v>3.252262902642304</v>
       </c>
       <c r="I6">
-        <v>4.417558556392394</v>
+        <v>4.110090420735402</v>
       </c>
       <c r="J6">
-        <v>11.60927014717729</v>
+        <v>11.03244501400468</v>
       </c>
       <c r="K6">
-        <v>18.92617843940646</v>
+        <v>17.63201604340122</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.93464606859128</v>
       </c>
       <c r="M6">
-        <v>9.908998652173025</v>
+        <v>12.22780113191709</v>
       </c>
       <c r="N6">
-        <v>6.434622234301947</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.06798605347907</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.618059905671342</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28554579081891</v>
+        <v>12.21186867674771</v>
       </c>
       <c r="C7">
-        <v>5.929157096242166</v>
+        <v>5.790116360538912</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.016560893641248</v>
+        <v>6.957956054134103</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.6083297414456</v>
+        <v>28.9281604301087</v>
       </c>
       <c r="H7">
-        <v>3.445974107990093</v>
+        <v>3.195367588459602</v>
       </c>
       <c r="I7">
-        <v>4.366687102600364</v>
+        <v>4.067135473712147</v>
       </c>
       <c r="J7">
-        <v>11.59906985607296</v>
+        <v>10.98216423982357</v>
       </c>
       <c r="K7">
-        <v>18.9156796146956</v>
+        <v>17.57534713571839</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.87054418517646</v>
       </c>
       <c r="M7">
-        <v>10.11975053152794</v>
+        <v>12.18670930452395</v>
       </c>
       <c r="N7">
-        <v>6.524636096199127</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.27780757910482</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.704314854588797</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42937451349402</v>
+        <v>13.3790000343324</v>
       </c>
       <c r="C8">
-        <v>6.305877689169486</v>
+        <v>6.238384357665866</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.403135178060759</v>
+        <v>7.30673437528088</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>32.04208173754592</v>
+        <v>28.96327863874009</v>
       </c>
       <c r="H8">
-        <v>3.17554245129718</v>
+        <v>2.9509396658495</v>
       </c>
       <c r="I8">
-        <v>4.143634226383321</v>
+        <v>3.875503191318523</v>
       </c>
       <c r="J8">
-        <v>11.57652305412589</v>
+        <v>10.86195456392244</v>
       </c>
       <c r="K8">
-        <v>18.91216451157726</v>
+        <v>17.39564672359302</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.65261601717482</v>
       </c>
       <c r="M8">
-        <v>10.9971023924357</v>
+        <v>12.07381171866316</v>
       </c>
       <c r="N8">
-        <v>6.9066751831989</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.15732647510912</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.073752313996675</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.46424732319318</v>
+        <v>15.40414310440114</v>
       </c>
       <c r="C9">
-        <v>6.980146508115684</v>
+        <v>7.062493605081506</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.111258814216949</v>
+        <v>7.939837721233708</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>33.10124271086276</v>
+        <v>29.13879601681053</v>
       </c>
       <c r="H9">
-        <v>2.678286072860347</v>
+        <v>2.499961493880842</v>
       </c>
       <c r="I9">
-        <v>3.725947708547176</v>
+        <v>3.512935246500512</v>
       </c>
       <c r="J9">
-        <v>11.58065408095581</v>
+        <v>10.79428781778506</v>
       </c>
       <c r="K9">
-        <v>18.98836401848889</v>
+        <v>17.16768201672153</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.32320422680765</v>
       </c>
       <c r="M9">
-        <v>12.53489113401271</v>
+        <v>12.04208288412931</v>
       </c>
       <c r="N9">
-        <v>7.599655860050149</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.70818138815384</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.750749530391031</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.80942059155111</v>
+        <v>16.72731115863361</v>
       </c>
       <c r="C10">
-        <v>7.494499397715447</v>
+        <v>7.632394765307983</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.419129849697651</v>
+        <v>8.217096563474675</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>33.35126310330857</v>
+        <v>29.08371663999143</v>
       </c>
       <c r="H10">
-        <v>2.364958550299414</v>
+        <v>2.221681125128321</v>
       </c>
       <c r="I10">
-        <v>3.450785483119994</v>
+        <v>3.280040460404629</v>
       </c>
       <c r="J10">
-        <v>11.4914575205988</v>
+        <v>10.46419022825598</v>
       </c>
       <c r="K10">
-        <v>18.83894265902127</v>
+        <v>16.76565277319772</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.90424344498507</v>
       </c>
       <c r="M10">
-        <v>13.56836257400135</v>
+        <v>11.89858794384983</v>
       </c>
       <c r="N10">
-        <v>7.938040232078121</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.73553473182402</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.074340075309763</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.24166132780872</v>
+        <v>17.20510684473719</v>
       </c>
       <c r="C11">
-        <v>8.087219695866654</v>
+        <v>8.117753286253738</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.202534387639514</v>
+        <v>7.076562205564032</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>29.18939260245858</v>
+        <v>26.04998541559408</v>
       </c>
       <c r="H11">
-        <v>3.196576307516386</v>
+        <v>3.099269438096251</v>
       </c>
       <c r="I11">
-        <v>3.402418914846915</v>
+        <v>3.247685850608567</v>
       </c>
       <c r="J11">
-        <v>10.66176262464538</v>
+        <v>9.539828161573253</v>
       </c>
       <c r="K11">
-        <v>17.15398343248085</v>
+        <v>15.35882958188874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.87247694084948</v>
       </c>
       <c r="M11">
-        <v>14.10457197604178</v>
+        <v>10.82673667758644</v>
       </c>
       <c r="N11">
-        <v>6.947264084810459</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.22182763455774</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.06431567931155</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.34159391477877</v>
+        <v>17.34186367663708</v>
       </c>
       <c r="C12">
-        <v>8.491122073905151</v>
+        <v>8.422561887947799</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.318316823848066</v>
+        <v>6.246616087214799</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>25.9039904604068</v>
+        <v>23.57508526185726</v>
       </c>
       <c r="H12">
-        <v>4.4619601524226</v>
+        <v>4.392368002500004</v>
       </c>
       <c r="I12">
-        <v>3.396511116780927</v>
+        <v>3.243334788533017</v>
       </c>
       <c r="J12">
-        <v>10.05527368625608</v>
+        <v>9.100555923544311</v>
       </c>
       <c r="K12">
-        <v>15.96469769886893</v>
+        <v>14.50620156463829</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.30378855685013</v>
       </c>
       <c r="M12">
-        <v>14.3455316424974</v>
+        <v>10.11499902218897</v>
       </c>
       <c r="N12">
-        <v>6.07804846952352</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.42794478981423</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.186654735508588</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18821614525516</v>
+        <v>17.21861719815344</v>
       </c>
       <c r="C13">
-        <v>8.798156599773129</v>
+        <v>8.653397983658895</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.699778032263745</v>
+        <v>5.667767906267948</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>22.99807164938533</v>
+        <v>21.23435840585194</v>
       </c>
       <c r="H13">
-        <v>5.825704395089906</v>
+        <v>5.768356248421451</v>
       </c>
       <c r="I13">
-        <v>3.436973917139398</v>
+        <v>3.275823625778434</v>
       </c>
       <c r="J13">
-        <v>9.565238947566892</v>
+        <v>8.924531403787716</v>
       </c>
       <c r="K13">
-        <v>15.05849881280105</v>
+        <v>13.98925938441462</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.98699554651832</v>
       </c>
       <c r="M13">
-        <v>14.38632963049139</v>
+        <v>9.639948269363224</v>
       </c>
       <c r="N13">
-        <v>5.258805745581121</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.44644646382416</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.369424728778747</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.96283921730028</v>
+        <v>17.01196128129673</v>
       </c>
       <c r="C14">
-        <v>8.979248880658369</v>
+        <v>8.790563889615537</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.476685931309778</v>
+        <v>5.464655850026957</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>21.22323769158338</v>
+        <v>19.74476289903981</v>
       </c>
       <c r="H14">
-        <v>6.80838655138693</v>
+        <v>6.755330915213567</v>
       </c>
       <c r="I14">
-        <v>3.488422362224305</v>
+        <v>3.318143019885202</v>
       </c>
       <c r="J14">
-        <v>9.288010105629132</v>
+        <v>8.876358138420438</v>
       </c>
       <c r="K14">
-        <v>14.59518599183469</v>
+        <v>13.77954074809112</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.86519206119153</v>
       </c>
       <c r="M14">
-        <v>14.32636477503411</v>
+        <v>9.429241049789873</v>
       </c>
       <c r="N14">
-        <v>4.735239408765235</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.37579578925023</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.852616142136846</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.85073550284111</v>
+        <v>16.90357568092769</v>
       </c>
       <c r="C15">
-        <v>9.006427629862216</v>
+        <v>8.812799616986194</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.449711945054438</v>
+        <v>5.442768304876461</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>20.8438891228911</v>
+        <v>19.41077160693469</v>
       </c>
       <c r="H15">
-        <v>7.039844140930514</v>
+        <v>6.986683394564416</v>
       </c>
       <c r="I15">
-        <v>3.515718319078559</v>
+        <v>3.341805050230403</v>
       </c>
       <c r="J15">
-        <v>9.236092393257637</v>
+        <v>8.885562776252774</v>
       </c>
       <c r="K15">
-        <v>14.51921476561771</v>
+        <v>13.76534419926221</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.8553190644012</v>
       </c>
       <c r="M15">
-        <v>14.26968195842892</v>
+        <v>9.410061391944497</v>
       </c>
       <c r="N15">
-        <v>4.615117496621317</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.31875751048034</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.735924114757188</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.31883699368595</v>
+        <v>16.36320882655393</v>
       </c>
       <c r="C16">
-        <v>8.758654849856413</v>
+        <v>8.622180597371356</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.400447701476327</v>
+        <v>5.407549028018519</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>21.28788004969007</v>
+        <v>19.71530120459949</v>
       </c>
       <c r="H16">
-        <v>6.863641193977934</v>
+        <v>6.799604481449842</v>
       </c>
       <c r="I16">
-        <v>3.630801135164328</v>
+        <v>3.437141769007524</v>
       </c>
       <c r="J16">
-        <v>9.370691247907317</v>
+        <v>9.118148883073975</v>
       </c>
       <c r="K16">
-        <v>14.7619249652206</v>
+        <v>14.05458919443941</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.00754883994761</v>
       </c>
       <c r="M16">
-        <v>13.84503001797937</v>
+        <v>9.66083049220831</v>
       </c>
       <c r="N16">
-        <v>4.601076856419708</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.91589744030097</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.736236306044565</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.02725954049453</v>
+        <v>16.05710323939052</v>
       </c>
       <c r="C17">
-        <v>8.462726757487024</v>
+        <v>8.382849754498933</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.440502873129422</v>
+        <v>5.443441381545571</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>22.49787955767071</v>
+        <v>20.67941288607352</v>
       </c>
       <c r="H17">
-        <v>6.180595181733104</v>
+        <v>6.103733458117863</v>
       </c>
       <c r="I17">
-        <v>3.692666114272031</v>
+        <v>3.489324232201161</v>
       </c>
       <c r="J17">
-        <v>9.610385585811608</v>
+        <v>9.363912982084235</v>
       </c>
       <c r="K17">
-        <v>15.1643163303931</v>
+        <v>14.39304141997623</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.21916161024973</v>
       </c>
       <c r="M17">
-        <v>13.54539397045571</v>
+        <v>9.945863796824359</v>
       </c>
       <c r="N17">
-        <v>4.859173550502119</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.63637618172036</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.000452153020702</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92255224787131</v>
+        <v>15.92697060385119</v>
       </c>
       <c r="C18">
-        <v>8.089760004578912</v>
+        <v>8.082421027365866</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.778172407387933</v>
+        <v>5.747827143412606</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>24.76921254092975</v>
+        <v>22.45003061416494</v>
       </c>
       <c r="H18">
-        <v>5.025693650943135</v>
+        <v>4.929441416990602</v>
       </c>
       <c r="I18">
-        <v>3.70300753103657</v>
+        <v>3.495736209662504</v>
       </c>
       <c r="J18">
-        <v>10.01602609033196</v>
+        <v>9.698281142937375</v>
       </c>
       <c r="K18">
-        <v>15.88378441846007</v>
+        <v>14.92320407483588</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.59276459432832</v>
       </c>
       <c r="M18">
-        <v>13.32329536110405</v>
+        <v>10.37129166757667</v>
       </c>
       <c r="N18">
-        <v>5.447888539495203</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.43914527188086</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.591038816104287</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.96949010378392</v>
+        <v>15.9414796067091</v>
       </c>
       <c r="C19">
-        <v>7.733672591249165</v>
+        <v>7.800859629955839</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.572563048584357</v>
+        <v>6.481183181270016</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>27.81858315081945</v>
+        <v>24.78182013488699</v>
       </c>
       <c r="H19">
-        <v>3.712379998988402</v>
+        <v>3.586896115182345</v>
       </c>
       <c r="I19">
-        <v>3.682968421919758</v>
+        <v>3.480725913290048</v>
       </c>
       <c r="J19">
-        <v>10.5521151242532</v>
+        <v>10.10095410560555</v>
       </c>
       <c r="K19">
-        <v>16.90961957930458</v>
+        <v>15.64137311229542</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.12174581300616</v>
       </c>
       <c r="M19">
-        <v>13.19270978158674</v>
+        <v>10.93540640237645</v>
       </c>
       <c r="N19">
-        <v>6.323567375143139</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.33521207774326</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.46725944843954</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.45113516332791</v>
+        <v>16.3710908105018</v>
       </c>
       <c r="C20">
-        <v>7.401702919509072</v>
+        <v>7.551063997236623</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.311628553229591</v>
+        <v>8.114690854456208</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>32.94883555989188</v>
+        <v>28.69848493297667</v>
       </c>
       <c r="H20">
-        <v>2.449320751504711</v>
+        <v>2.294569798601408</v>
       </c>
       <c r="I20">
-        <v>3.54962310786489</v>
+        <v>3.370708722147421</v>
       </c>
       <c r="J20">
-        <v>11.45126284981497</v>
+        <v>10.62961774155075</v>
       </c>
       <c r="K20">
-        <v>18.74291666583288</v>
+        <v>16.82254654141776</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.97675827324184</v>
       </c>
       <c r="M20">
-        <v>13.31569983505402</v>
+        <v>11.89545108595819</v>
       </c>
       <c r="N20">
-        <v>7.84829030539578</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.48995565744179</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.990712453126428</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.4616015931992</v>
+        <v>17.38659745058501</v>
       </c>
       <c r="C21">
-        <v>7.720593462757128</v>
+        <v>7.799135876598681</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.802492586990816</v>
+        <v>8.602217196291015</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>33.97542725092885</v>
+        <v>29.94656935877835</v>
       </c>
       <c r="H21">
-        <v>2.167380614683712</v>
+        <v>2.049035061128019</v>
       </c>
       <c r="I21">
-        <v>3.328077490524288</v>
+        <v>3.191950085560925</v>
       </c>
       <c r="J21">
-        <v>11.54135028091119</v>
+        <v>9.874473639535964</v>
       </c>
       <c r="K21">
-        <v>18.9537167102093</v>
+        <v>16.45557334460371</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.62610860751028</v>
       </c>
       <c r="M21">
-        <v>14.05699807345752</v>
+        <v>11.74636714788435</v>
       </c>
       <c r="N21">
-        <v>8.306426105623467</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.19678971142486</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.424284469004428</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09019820156497</v>
+        <v>18.02188399911481</v>
       </c>
       <c r="C22">
-        <v>7.929445824859241</v>
+        <v>7.953894207410256</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.0367444039818</v>
+        <v>8.841816398006728</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>34.52391621051298</v>
+        <v>30.76546868398248</v>
       </c>
       <c r="H22">
-        <v>1.999981332137083</v>
+        <v>1.904827217492733</v>
       </c>
       <c r="I22">
-        <v>3.178803492620824</v>
+        <v>3.067555818010634</v>
       </c>
       <c r="J22">
-        <v>11.57977642514564</v>
+        <v>9.403723979856494</v>
       </c>
       <c r="K22">
-        <v>19.04815285244817</v>
+        <v>16.16794460120171</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.3719204707278</v>
       </c>
       <c r="M22">
-        <v>14.52282467183057</v>
+        <v>11.61411073144272</v>
       </c>
       <c r="N22">
-        <v>8.527364284976672</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.63772810812727</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.62896234418753</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.76273861570803</v>
+        <v>17.6862531621371</v>
       </c>
       <c r="C23">
-        <v>7.804535527125232</v>
+        <v>7.87295085097397</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.919925108980362</v>
+        <v>8.716146113349236</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>34.34679397813489</v>
+        <v>30.33385809354357</v>
       </c>
       <c r="H23">
-        <v>2.087753403279071</v>
+        <v>1.979344424650913</v>
       </c>
       <c r="I23">
-        <v>3.247240725971669</v>
+        <v>3.119711756566717</v>
       </c>
       <c r="J23">
-        <v>11.58127316936008</v>
+        <v>9.730817749248351</v>
       </c>
       <c r="K23">
-        <v>19.04528265170923</v>
+        <v>16.39581370266092</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.55737168466886</v>
       </c>
       <c r="M23">
-        <v>14.27209627956312</v>
+        <v>11.7463639048991</v>
       </c>
       <c r="N23">
-        <v>8.408756412898951</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.40534264135767</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.521192982273504</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.45599027644368</v>
+        <v>16.37144775504729</v>
       </c>
       <c r="C24">
-        <v>7.343861328553832</v>
+        <v>7.496416971367979</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.450742035772734</v>
+        <v>8.245203014493832</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>33.50273733409816</v>
+        <v>29.13654809389495</v>
       </c>
       <c r="H24">
-        <v>2.42875130605707</v>
+        <v>2.274217095776033</v>
       </c>
       <c r="I24">
-        <v>3.530642984964349</v>
+        <v>3.349149651132129</v>
       </c>
       <c r="J24">
-        <v>11.55683248104217</v>
+        <v>10.71461958809797</v>
       </c>
       <c r="K24">
-        <v>18.96393566368645</v>
+        <v>16.98770610360688</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.09994708059307</v>
       </c>
       <c r="M24">
-        <v>13.28927539557839</v>
+        <v>12.0231183665199</v>
       </c>
       <c r="N24">
-        <v>7.947468677104016</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.46704451674189</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.090935213430846</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.92116872744583</v>
+        <v>14.87373036317443</v>
       </c>
       <c r="C25">
-        <v>6.825460173488835</v>
+        <v>6.880924495560721</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.913907585310612</v>
+        <v>7.761181908593059</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>32.62520095109551</v>
+        <v>28.88145616234702</v>
       </c>
       <c r="H25">
-        <v>2.811307193152115</v>
+        <v>2.619672471454993</v>
       </c>
       <c r="I25">
-        <v>3.850416847421481</v>
+        <v>3.62434822920548</v>
       </c>
       <c r="J25">
-        <v>11.54313434362587</v>
+        <v>10.83840651875358</v>
       </c>
       <c r="K25">
-        <v>18.89180642327056</v>
+        <v>17.19302614318761</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.38495758312164</v>
       </c>
       <c r="M25">
-        <v>12.14454341822711</v>
+        <v>12.01206278771367</v>
       </c>
       <c r="N25">
-        <v>7.420500006373748</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.31666767402428</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.576379785984455</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
